--- a/RPD_output/dataset_res3.xlsx
+++ b/RPD_output/dataset_res3.xlsx
@@ -79,31 +79,31 @@
     <t>разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,анализ финансово-хозяйственный деятельность аудит обучаемость адаптивность целеустремленность работоспособность,microsoft excel,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,ведение финансовый отчетность oracle database разработка пользовательский сценарий знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность,коммуникативный грамотность ведение документооборот знание область логистика составление договор microsoft office,коммуникативный грамотность коммуникативный грамотность информационный грамотность информационный грамотность информационный грамотность ведение отчетность,microsoft excel microsoft powerpoint sap финансовый анализ,работа erp-система лизинг ведение бухгалтерский учет финансовый анализ,с бит финанс microsoft excel microsoft office ведение управленческий отчетность,ведение финансовый отчетность,разработка bi анализ финансово-хозяйственный деятельность работа дебиторский задолженность моделирование риск управление риск организация управление бизнес-процесс управление риск управление финансы ведение финансовый отчетность финансовый анализ бюджетирование ведение управленческий отчетность экономический анализ,ведение финансовый отчетность проектный финансирование информационный грамотность управление финансы ведение управленческий отчетность лидерство управление персонал ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,знание английский язык ведение документооборот ведение финансовый отчетность финансовый анализ экономический анализ,финансовый анализ аналитический мышление ведение бухгалтерский учет ведение отчетность информационный грамотность ведение управленческий отчетность ведение финансовый отчетность управление финансы,составление договор клиентоориентированность анализ потребитель поиск привлечение новый клиент продажа,финансовый анализ ведение управленческий отчетность ведение управленческий учет финансовый анализ,microsoft powerpoint анализ инвестиционный проект анализ финансово-хозяйственный деятельность научно-исследовательский работа проведение инвестиционный операция проектный финансирование оптимизация бизнес-процесс организация управление бизнес-процесс финансовый анализ,ведение финансовый отчетность ведение бухгалтерский учет ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,работа поставщик финансовый анализ налоговый учет ведение финансовый отчетность,выполнение производственный технический контроль ведение финансовый отчетность оптимизация бизнес-процесс организация управление бизнес-процесс,продажа клиентоориентированность продажа продажа продажа,microsoft excel знание английский язык ведение финансовый отчетность ведение управленческий отчетность,продажа коммуникативный грамотность продажа поиск привлечение новый клиент,microsoft excel ведение бухгалтерский учет налоговый учет налоговый учет ведение управленческий отчетность ведение финансовый отчетность управление финансы,базовый инструментальный грамотность коммуникативный грамотность консультирование ведение клиент базовый знание пк,microsoft excel экономический анализ,продажа публичный выступление проведение презентация продажа работа возражение поиск привлечение новый клиент продажа продажа работа команда продажа,продажа поиск привлечение новый клиент публичный выступление проведение презентация,продажа продажа публичный выступление проведение презентация поиск привлечение новый клиент,коучинг проведение тренинг организаторский навык подбор персонал лидерство управление персонал продажа управление планирование продажа,знание английский язык ведение бухгалтерский учет проведение валютный операция коммуникативный грамотность ведение документооборот ведение управленческий отчетность,microsoft excel аналитический мышление бюджетирование бюджетирование многозадачность ведение управленческий отчетность целеустремленность работоспособность ведение финансовый отчетность финансовый анализ управление финансы экономический анализ,клиентоориентированность продажа прием обслуживание клиент поиск привлечение новый клиент многозадачность работа команда,анализ инвестиционный проект проектный финансирование бюджетирование управление финансы финансовый анализ бюджетирование,google docs аналитический мышление бюджетирование базовый инструментальный грамотность коммуникативный грамотность коммуникативный грамотность лидерство обучаемость адаптивность клиентоориентированность целеустремленность работоспособность работа команда стрессоустойчивость системный интегративный мышление самоорганизованность умение принимать решение самоорганизованность ведение управленческий отчетность финансовый анализ управление финансы,ведение финансовый отчетность финансовый анализ бюджетирование проведение инвестиционный операция налоговый учет бюджетирование информационный грамотность управление риск ведение управленческий отчетность бюджетирование,ведение управленческий отчетность налоговый учет целеустремленность работоспособность экономический анализ,продажа поиск привлечение новый клиент публичный выступление проведение презентация,целеустремленность работоспособность базовый знание пк работа команда знание область логистика экспедирование транспортный логистика,знание английский язык ведение документооборот создание презентационный материал ведение финансовый отчетность,разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,коммуникативный грамотность управление затрата ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность,инициативность коммуникативный грамотность внимательность,ведение финансовый отчетность ведение управленческий учет ведение финансовый отчетность,разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,анализ финансово-хозяйственный деятельность бюджетирование проведение инвестиционный операция ведение управленческий учет финансовый анализ управление финансы,финансовый анализ,анализ финансово-хозяйственный деятельность финансовый анализ ведение бухгалтерский учет бюджетирование проектный финансирование бюджетирование управление финансы ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,microsoft excel бюджетирование бюджетирование финансовый анализ,коммуникативный грамотность клиентоориентированность консультирование ведение клиент базовый знание пк,продажа базовый инструментальный грамотность клиентоориентированность продажа,обучаемость адаптивность продажа коммуникативный грамотность,бюджетирование взаимодействие государственный контролировать орган аудит организаторский навык лидерство управление персонал ведение управленческий отчетность,ведение финансовый отчетность знание английский язык аудит аудит ведение финансовый отчетность ведение финансовый отчетность,выполнение производственный технический контроль работа дебиторский задолженность ведение финансовый отчетность управление финансы,ведение бухгалтерский учет,microsoft excel управление база данные управление база данные ведение документооборот,информационный грамотность работа uml-диаграмма управление финансы,бюджетирование,microsoft excel microsoft powerpoint знание английский язык анализ ценообразование экономический анализ,аналитический мышление анализ инвестиционный проект бюджетирование ведение финансовый отчетность финансовый анализ,финансовый анализ бюджетирование информационный грамотность финансовый анализ,бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ бюджетирование,аналитический мышление знание английский язык внешнеэкономический деятельность коммуникативный грамотность клиентоориентированность многозадачность информационный грамотность проведение валютный операция,google docs microsoft excel ведение бухгалтерский учет налоговый учет ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,бюджетирование ведение финансовый отчетность финансовый анализ,бюджетирование анализ ценообразование управление затрата ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет,клиентоориентированность,клиентоориентированность,организация управление бизнес-процесс бюджетирование бюджетирование проведение инвестиционный операция налоговый учет управление проект ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование анализ ценообразование управление затрата ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,абс diasoft microsoft office аналитический мышление знание английский язык коммуникативный грамотность информационный грамотность,управление финансы,управление финансы управление финансы экономический анализ,анализ финансово-хозяйственный деятельность бюджетирование системный интегративный мышление ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет управление финансы,ведение финансовый отчетность финансовый анализ ведение бухгалтерский учет ведение бухгалтерский учет знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность проектный финансирование ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность управление финансы,продажа продажа обучаемость адаптивность целеустремленность работоспособность продажа,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,аналитический мышление работа дебиторский задолженность ведение документооборот лизинг лизинг составление договор,microsoft excel финансовый анализ коммуникативный грамотность ведение отчетность информационный грамотность креативный мышление информационный грамотность системный интегративный мышление коммуникативный грамотность умение принимать решение,информационный грамотность управление финансы ведение финансовый отчетность финансовый анализ экономический анализ,знание английский язык ведение финансовый отчетность финансовый анализ управление финансы,работа uml-диаграмма,microsoft sql server анализ данные аналитический мышление знание английский язык информационный грамотность,коммуникативный грамотность ведение документооборот ведение бухгалтерский учет управление база данные ведение документооборот,microsoft outlook microsoft powerpoint работа автоматизированный система управление работа автоматизированный система управление коммуникативный грамотность ведение документооборот,microsoft excel microsoft power bi power query,базовый знание пк microsoft excel проектный финансирование анализ ценообразование ведение финансовый отчетность финансовый анализ,microsoft excel microsoft office бюджетирование финансовый анализ,организаторский навык многозадачность стрессоустойчивость коммуникативный грамотность,финансовый анализ аналитический мышление бюджетирование бюджетирование информационный грамотность ведение отчетность ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование ведение управленческий отчетность финансовый анализ управление финансы,знание нормативно-правовой документ клиент-банк работа банковский гарантия бюджетирование проведение валютный операция ведение бухгалтерский учет ведение управленческий отчетность управление финансы ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность ведение финансовый отчетность,работа erp-система аудит аудит аудит выполнение производственный технический контроль аудит,microsoft excel microsoft powerpoint microsoft word анализ финансово-хозяйственный деятельность ведение отчетность базовый знание пк работа команда информационный грамотность ведение финансовый отчетность финансовый анализ экономический анализ,с microsoft excel,power query финансовый анализ аналитический мышление microsoft excel многозадачность информационный грамотность ведение управленческий отчетность ведение управленческий учет экономический анализ,финансовый анализ бюджетирование бюджетирование ведение финансовый отчетность бюджетирование,бюджетирование,microsoft excel клиент-банк бюджетирование обслуживание клиент банк ведение управленческий отчетность анализ ценообразование ведение управленческий отчетность ведение управленческий учет финансовый анализ управление финансы,анализ финансово-хозяйственный деятельность многозадачность базовый знание пк многозадачность работа поставщик информационный грамотность умение принимать решение,коммуникативный грамотность ведение документооборот знание область логистика составление договор microsoft office,аналитический мышление бюджетирование ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,ответственность проактивность креативный мышление,взаимодействие государственный контролировать орган ведение финансовый отчетность коммуникативный грамотность ведение кадровый учет налоговый учет налоговый учет налоговый учет ответственность проактивность ведение бухгалтерский учет организация оплата труд налоговый учет знание область логистика экспедирование транспортный логистика ведение финансовый отчетность,организаторский навык бюджетирование ведение финансовый отчетность бюджетирование,ведение бухгалтерский учет бюджетирование ведение документооборот управление финансы,финансовый анализ знание английский язык коммуникативный грамотность коммуникативный грамотность продажа системный интегративный мышление лидерство управление персонал консультирование ведение клиент продажа,с erp аналитический мышление бюджетирование взаимодействие государственный контролировать орган ведение управленческий учет,коммуникативный грамотность ведение управленческий отчетность ведение финансовый отчетность финансовый анализ финансовый анализ,продажа коммуникативный грамотность коммуникативный грамотность продажа,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,ведение документооборот ведение документооборот работа команда информационный грамотность системный интегративный мышление умение принимать решение,abc-анализ abc-анализ анализ финансово-хозяйственный деятельность анализ ценообразование анализ ценообразование аналитический мышление бюджетирование ведение отчетность управление затрата ведение финансовый отчетность финансовый анализ,бюджетирование стрессоустойчивость ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,google docs финансовый анализ ведение управленческий отчетность ведение финансовый отчетность,финансовый анализ разработка bi бюджетирование бюджетирование бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность управление финансы,microsoft excel visual basic for applications microsoft office финансовый анализ,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,аналитический мышление бюджетирование бюджетирование ведение управленческий отчетность финансовый анализ,microsoft excel microsoft powerpoint финансовый анализ бюджетирование коммуникативный грамотность кредитование,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,моделирование риск управление риск финансовый анализ анализ финансово-хозяйственный деятельность ведение документооборот проектный финансирование кредитование финансовый анализ экономический анализ,анализ финансово-хозяйственный деятельность финансовый анализ бюджетирование информационный грамотность лидерство управление персонал ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,microsoft excel quickbooks ведение бухгалтерский учет знание английский язык логический мышление ведение отчетность,знание английский язык ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,финансовый анализ ведение финансовый отчетность финансовый анализ аналитический мышление ведение финансовый отчетность ведение управленческий отчетность,аналитический мышление бюджетирование бюджетирование ведение финансовый отчетность,microsoft excel microsoft visio управленческий консультирование коммуникативный грамотность оптимизация бизнес-процесс организация управление бизнес-процесс организаторский навык создание презентационный материал публичный выступление проведение презентация,бюджетирование работа маркетплейс ведение управленческий отчетность,microsoft excel ведение управленческий отчетность финансовый анализ управление финансы,финансовый анализ ведение финансовый отчетность финансовый анализ ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет,консультирование ведение клиент многозадачность работа команда управление база данные финансовый анализ,финансовый анализ лидерство управление персонал ведение управленческий учет ведение финансовый отчетность ведение управленческий отчетность,microsoft excel microsoft outlook анализ данные аналитический мышление базовый инструментальный грамотность базовый инструментальный грамотность многозадачность ведение документооборот информационный грамотность,работа поставщик ведение управленческий учет,продажа управление планирование продажа поиск привлечение новый клиент работа команда продажа,ведение бухгалтерский учет бюджетирование ведение финансовый отчетность microsoft powerpoint ведение финансовый отчетность бюджетирование знание международный стандарт финансовый отчетность ведение финансовый отчетность информационный грамотность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,анализ финансово-хозяйственный деятельность финансовый анализ аналитический мышление знание английский язык бюджетирование бюджетирование ведение бухгалтерский учет ведение финансовый отчетность бюджетирование ведение финансовый отчетность бюджетирование знание локальный нормативный акт сфера бухгалтерский учет ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,финансовый анализ аналитический мышление бюджетирование информационный грамотность лидерство управление персонал управление финансы ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность финансовый анализ,финансовый анализ клиент-банк ведение бухгалтерский учет организация оплата труд составление договор ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,google docs аналитический мышление ведение бухгалтерский учет ведение документооборот ведение отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет бюджетирование ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование кредитование проектный финансирование управление риск,microsoft excel microsoft word внимательность базовый инструментальный грамотность базовый знание пк ведение документооборот,ведение финансовый отчетность финансовый анализ ведение управленческий учет ведение финансовый отчетность,анализ финансово-хозяйственный деятельность аналитический мышление ведение бухгалтерский учет ведение управленческий учет ведение финансовый отчетность управление финансы,бюджетирование управление затрата ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет ведение финансовый отчетность финансовый анализ управление финансы,microsoft excel,коммуникативный грамотность коммуникативный грамотность многозадачность информационный грамотность финансовый анализ,финансовый анализ аналитический мышление бюджетирование ведение бухгалтерский учет бюджетирование анализ ценообразование разработка bi ведение финансовый отчетность моделирование риск управление риск управление риск управление финансы ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность анализ ценообразование,продажа кредитование кредитование продажа продажа страхование продажа,microsoft outlook коммуникативный грамотность коммуникативный грамотность ведение документооборот составление договор бюджетирование ведение бухгалтерский учет ведение документооборот ведение документооборот ведение отчетность информационный грамотность составление договор составление договор,финансовый анализ финансовый анализ анализ инвестиционный проект лидерство управление персонал разработка bi ведение финансовый отчетность финансовый анализ знание английский язык аудит бюджетирование ведение финансовый отчетность информационный грамотность финансовый анализ,microsoft excel ведение отчетность ведение управленческий отчетность финансовый анализ,финансовый анализ бюджетирование бюджетирование работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,финансовый анализ бюджетирование бюджетирование работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,microsoft excel microsoft word коммуникативный грамотность ведение документооборот,базовый инструментальный грамотность базовый инструментальный грамотность многозадачность работа команда,microsoft office аналитический мышление бюджетирование управление затрата ведение управленческий отчетность управление финансы,microsoft office аналитический мышление бюджетирование управление затрата ведение управленческий отчетность управление финансы,клиент-банк ведение бухгалтерский учет ведение бухгалтерский учет контурэкстерна налоговый учет ведение документооборот,финансовый анализ бюджетирование бюджетирование ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,финансовый анализ аналитический мышление коммуникативный грамотность информационный грамотность ведение финансовый отчетность,финансовый анализ ведение отчетность ведение управленческий отчетность ведение финансовый отчетность управление финансы,microsoft excel финансовый анализ работа дебиторский задолженность ведение отчетность финансовый анализ экономический анализ,microsoft power bi ведение бухгалтерский учет бюджетирование лидерство управление персонал ведение управленческий учет управление финансы,продажа продажа коммуникативный грамотность коммуникативный грамотность коммуникативный грамотность публичный выступление проведение презентация продажа поиск привлечение новый клиент продажа страхование продажа продажа,анализ финансово-хозяйственный деятельность знание английский язык бюджетирование управление риск управление финансы бюджетирование ведение управленческий отчетность,google sheets microsoft excel,microsoft excel работа поставщик анализ данные коммуникативный грамотность многозадачность работа команда информационный грамотность ведение управленческий отчетность управление финансы,с знание нормативно-правовой документ,управление продукт управление проект работа система управление проект confluence работа система управление проект знание английский язык управление проект,ведение бухгалтерский учет кредитование информационный грамотность,проведение инвестиционный операция инициативность проектный финансирование многозадачность ответственность проактивность финансовый анализ проектный финансирование самоорганизованность финансовый анализ управление финансы,ведение управленческий отчетность финансовый анализ ведение финансовый отчетность финансовый анализ,коучинг проведение тренинг организаторский навык подбор персонал поиск привлечение новый клиент лидерство управление персонал продажа управление планирование продажа,финансовый анализ разработка bi консультирование ведение клиент работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет,power query финансовый анализ ведение управленческий отчетность ведение финансовый отчетность,microsoft excel microsoft sql server знание английский язык финансовый анализ,анализ финансово-хозяйственный деятельность аналитический мышление ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,анализ финансово-хозяйственный деятельность финансовый анализ работа жилой недвижимость финансовый анализ управление финансы ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,microsoft excel ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет,ведение управленческий учет,microsoft excel бюджетирование,анализ финансово-хозяйственный деятельность финансовый анализ ведение бухгалтерский учет ведение финансовый отчетность информационный грамотность управление финансы ведение управленческий учет бюджетирование экономический анализ,с microsoft powerpoint анализ ценообразование бюджетирование ведение отчетность многозадачность составление договор,аналитический мышление бюджетирование бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ финансовый анализ экономический анализ,цифровой компьютерный грамотность базовый инструментальный грамотность клиентоориентированность,ведение бухгалтерский учет проектный финансирование кредитование кредитование юридический лицо многозадачность проектный финансирование работа команда ведение финансовый отчетность ведение финансовый отчетность экономический анализ,microsoft excel ведение бухгалтерский учет ведение документооборот ведение управленческий учет,ведение управленческий отчетность ведение финансовый отчетность финансовый анализ экономический анализ,ведение бухгалтерский учет,ведение бухгалтерский учет бюджетирование ведение финансовый отчетность информационный грамотность ведение управленческий отчетность финансовый анализ ведение финансовый отчетность финансовый анализ бюджетирование,аналитический мышление инициативность самостоятельность,анализ финансово-хозяйственный деятельность финансовый анализ банковский кассовый операция финансовый анализ,продажа продажа коммуникативный грамотность коммуникативный грамотность поиск привлечение новый клиент коммуникативный грамотность продажа,microsoft office microsoft outlook аналитический мышление ведение бухгалтерский учет налоговый учет управление база данные управление затрата ведение финансовый отчетность ведение финансовый отчетность управление финансы,коммуникативный грамотность ведение документооборот ведение документооборот информационный грамотность составление договор,коммуникативный грамотность организаторский навык поиск привлечение новый клиент коммуникативный грамотность финансовый анализ,продажа продажа публичный выступление проведение презентация поиск привлечение новый клиент,аналитический мышление коммуникативный грамотность ведение документооборот управление затрата ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность экономический анализ,microsoft powerpoint создание презентационный материал ведение финансовый отчетность финансовый анализ,ведение финансовый отчетность ведение управленческий отчетность,продажа коммуникативный грамотность клиентоориентированность коммуникативный грамотность консультирование ведение клиент консультирование ведение клиент продажа ответственность проактивность поиск привлечение новый клиент базовый знание пк кредитование продажа коммуникативный грамотность,знание английский язык клиентоориентированность консультирование ведение клиент умение мотивировать адаптировать персонал многозадачность,базовый инструментальный грамотность консультирование ведение клиент базовый знание пк работа команда,клиент-банк продажа банковский продукт услуга коммуникативный грамотность управление база данные информационный грамотность ведение документооборот,коммуникативный грамотность коммуникативный грамотность поиск привлечение новый клиент публичный выступление проведение презентация коммуникативный грамотность,microsoft excel ведение документооборот ведение отчетность ведение финансовый отчетность,разработка с биллинг ведение финансовый отчетность ведение финансовый отчетность анализ финансово-хозяйственный деятельность ведение финансовый отчетность ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,экономический анализ,банковский кассовый операция ведение бухгалтерский учет ведение документооборот,microsoft excel знание английский язык бюджетирование ведение управленческий отчетность,анализ финансово-хозяйственный деятельность анализ финансово-хозяйственный деятельность бюджетирование проведение валютный операция бюджетирование работа дебиторский задолженность бюджетирование бюджетирование организация управление бизнес-процесс управление финансы ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,информационный грамотность составление договор ведение документооборот,коммуникативный грамотность коммуникативный грамотность ведение документооборот ведение документооборот,продажа microsoft office анализ инвестиционный проект финансовый анализ анализ инвестиционный проект коммуникативный грамотность,microsoft excel работа поставщик ведение финансовый отчетность,с erp финансовый анализ бюджетирование управление финансы ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность,бюджетирование бюджетирование многозадачность работа команда финансовый анализ управление финансы,финансовый анализ microsoft excel ведение финансовый отчетность анализ финансово-хозяйственный деятельность финансовый анализ бюджетирование бюджетирование управление финансы ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование ведение управленческий отчетность,microsoft excel sap создание презентационный материал,google docs google sheets коммуникативный грамотность базовый знание пк,аналитический мышление информационный грамотность ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность ведение финансовый отчетность,продажа кредитование кредитование продажа продажа страхование продажа,организаторский навык ведение финансовый отчетность ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность финансовый анализ управление финансы,финансовый анализ ведение бухгалтерский учет ведение бухгалтерский учет ведение бухгалтерский учет ведение финансовый отчетность налоговый учет информационный грамотность знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,финансовый анализ бюджетирование кредитование финансовый анализ управление финансы,microsoft excel анализ данные анализ финансово-хозяйственный деятельность финансовый анализ ведение управленческий отчетность ведение бухгалтерский учет ведение управленческий отчетность microsoft excel информационный грамотность ста</t>
   </si>
   <si>
-    <t>['анализ', 'microsoft', 'управление', 'данные', 'финансовый', 'sql', 'грамотность', 'проведение', 'bi', 'мышление', 'знание', 'ведение', 'разработка', 'работа', 'аналитический', 'маркетинговый', 'python', 'исследование', 'отчетность', 'инвестиционный', 'продажа', 'информационный', 'power', 'проект', 'excel', 'область', 'маркетинг', 'основа', 'коммуникативный', 'рынок', 'база', 'бюджетирование', 'стратегия', 'научно', 'исследовательский', 'powerpoint', 'среда', 'конкурентный', 'процесс', 'бизнес', 'язык', 'английский', 'управленческий', 'организация', 'маркетплейс', 'server', 'персонал', 'лидерство', 'хозяйственный', 'финансово', 'бренд', 'создание', 'риск', 'ценообразование', 'оптимизация', 'деятельность', 'обработка', 'учет', 'статистический', 'презентационный', 'материал', 'google', 'tableau', 'apache', 'экономический', 'система', 'продукт', 'тестирование', 'поисковый', 'seo', 'навык', 'сайт', 'публичный', 'презентация', 'выступление', 'базовый', 'финансирование', 'postgresql', 'продвижение', 'операция', 'финансы', 'ассортимент', 'etl', 'моделирование', 'организаторский', 'системный', 'технический', 'бухгалтерский', 'команда', 'analytics', 'sap', 'clickhouse', 'социальный', 'проектный', 'сеть', 'визуализация', 'клиент', 'рекламный', 'веб', 'многозадачность', 'аналитика', 'оценка', 'query', 'dwh', 'инструментальный', 'формирование', 'задание', 'обучаемость', 'адаптивность', 'математический', 'bpmn', 'аудит', 'superset', 'oracle', 'написание', 'текст', 'редактирование']</t>
-  </si>
-  <si>
-    <t>['управление', 'анализ', 'microsoft', 'данные', 'грамотность', 'sql', 'работа', 'разработка', 'мышление', 'аналитический', 'bi', 'информационный', 'технический', 'бизнес', 'процесс', 'формирование', 'задание', 'excel', 'проект', 'bpmn', 'знание', 'организация', 'система', 'продажа', 'api', 'ведение', 'python', 'база', 'проведение', 'системный', 'erp', 'uml', 'базовый', 'powerpoint', 'коммуникативный', 'sap', 'персонал', 'power', 'лидерство', 'научно', 'исследовательский', 'исследование', 'маркетинговый', 'документация', 'рынок', 'server', 'отчетность', 'обработка', 'оптимизация', 'статистический', 'учет', 'язык', 'команда', 'среда', 'конкурентный', 'английский', 'javascript', 'финансовый', 'принцип', 'ценообразование', 'создание', 'confluence', 'презентационный', 'материал', 'инструментальный', 'visio', 'область', 'чтение', 'google', 'многозадачность', 'документооборот', 'бухгалтерский', 'публичный', 'презентация', 'нормативный', 'выступление', 'пк', 'риск', 'apache', 'ассортимент', 'проектный', 'управленческий', 'маркетинг', 'postgresql', 'маркетплейс', 'основа', 'обучение', 'интегративный', 'машинный', 'применение', 'сценарий', 'продукт', 'тестирование', 'пользовательский', 'tableau', 'oracle', 'моделирование', 'математический', 'office', 'клиент', 'консультирование', 'access', 'методология', 'idef', 'etl', 'crm', 'database', 'экономический', 'query', 'visual', 'обучаемость', 'адаптивность', 'требование', 'сбор', 'for', 'basic', 'applications', 'analytics', 'dwh', 'целеустремленность', 'работоспособность', 'аналитика', 'планирование']</t>
-  </si>
-  <si>
-    <t>['управление', 'бизнес', 'разработка', 'процесс', 'bi', 'организация', 'microsoft', 'bpmn', 'анализ', 'работа', 'грамотность', 'проект', 'мышление', 'аналитический', 'система', 'технический', 'оптимизация', 'sql', 'формирование', 'задание', 'данные', 'информационный', 'uml', 'коммуникативный', 'ведение', 'лидерство', 'знание', 'персонал', 'excel', 'системный', 'документация', 'продукт', 'erp', 'confluence', 'проведение', 'база', 'visio', 'powerpoint', 'power', 'продажа', 'применение', 'api', 'научно', 'исследовательский', 'язык', 'английский', 'нормативный', 'отчетность', 'методология', 'idef', 'server', 'сценарий', 'пользовательский', 'управленческий', 'создание', 'презентационный', 'материал', 'базовый', 'требование', 'сбор', 'рынок', 'crm', 'публичный', 'презентация', 'выступление', 'команда', 'документооборот', 'python', 'финансовый', 'консультирование', 'sap', 'business', 'интегративный', 'обучаемость', 'битрикс', 'адаптивность', 'клиент', 'studio', 'чтение', 'проектный', 'тестирование', 'область', 'учет', 'javascript', 'логистика']</t>
-  </si>
-  <si>
-    <t>['проведение', 'тренинг', 'коучинг', 'продажа', 'обучаемость', 'адаптивность', 'грамотность', 'персонал', 'управление', 'коммуникативный', 'публичный', 'презентация', 'выступление', 'учебный', 'лидерство', 'организаторский', 'навык', 'потребитель', 'процесс', 'организация', 'анализ', 'техник', 'работа', 'обучение', 'умение', 'команда', 'базовый', 'microsoft', 'мотивировать', 'знание', 'адаптировать', 'инструментальный', 'клиент', 'powerpoint', 'заказчик', 'взаимодействие', 'самоорганизованность', 'целеустремленность', 'работоспособность', 'ведение', 'создание', 'презентационный', 'материал', 'мышление', 'методический', 'многозадачность', 'проект', 'информационный', 'подбор', 'документооборот', 'разработка', 'психология', 'язык']</t>
-  </si>
-  <si>
-    <t>['управление', 'продукт', 'грамотность', 'анализ', 'проект', 'коммуникативный', 'работа', 'проведение', 'продажа', 'мышление', 'знание', 'лидерство', 'персонал', 'разработка', 'аналитический', 'рынок', 'исследование', 'маркетинговый', 'язык', 'английский', 'публичный', 'презентация', 'выступление', 'microsoft', 'среда', 'конкурентный', 'ассортимент', 'технический', 'система', 'процесс', 'навык', 'бизнес', 'маркетинг', 'бренд', 'организаторский', 'системный', 'ценообразование', 'формирование', 'задание', 'интегративный', 'клиент', 'команда', 'информационный', 'область', 'bi', 'стратегия', 'маркетплейс', 'организация', 'основа', 'ux', 'ui', 'базовый', 'ведение', 'дизайн', 'данные', 'тестирование', 'создание', 'потребитель', 'продвижение', 'оптимизация', 'презентационный', 'материал', 'powerpoint', 'закупка', 'excel', 'development', 'customer', 'поставщик', 'самоорганизованность', 'инструментальный', 'составление', 'планирование', 'научно', 'исследовательский', 'целеустремленность', 'работоспособность', 'применение', 'sql', 'метод', 'многозадачность', 'обучаемость', 'адаптивность', 'карта', 'путь', 'cjm', 'документация', 'привлечение', 'поиск', 'креативный', 'google', 'новый', 'чтение', 'документооборот', 'консультирование']</t>
-  </si>
-  <si>
-    <t>['ведение', 'грамотность', 'документооборот', 'базовый', 'знание', 'работа', 'пк', 'коммуникативный', 'информационный', 'microsoft', 'учет', 'команда', 'управление', 'данные', 'база', 'инструментальный', 'складской', 'оргтехника', 'оформление', 'прием', 'внимательность', 'excel', 'инвентаризация', 'ценность', 'товарно', 'материальный', 'заказ', 'проведение', 'клиент', 'логистика', 'бухгалтерский', 'область', 'многозадачность', 'отчетность', 'отгрузка', 'консультирование', 'контроль', 'office', 'проактивность', 'ответственность', 'outlook', 'возврат', 'обучаемость', 'адаптивность', 'система', 'продажа', 'поставщик', 'мышление', 'wms', 'взаимодействие', 'аналитический', 'заказчик', 'груз', 'погрузочно', 'разгрузочный', 'целеустремленность', 'работоспособность', 'самоорганизованность']</t>
-  </si>
-  <si>
-    <t>['javascript', 'разработка', 'scala', 'kotlin', 'java', 'git', 'php', 'sql', 'html', 'css', 'api', 'postgresql', 'python', 'управление', 'мобильный', 'программирование', 'объектно', 'docker', 'знание', 'ориентированный', 'mysql', 'работа', 'apache', 'net', 'базовый', 'данные', 'принцип', 'golang', 'microsoft', 'end', 'база', 'kafka', 'android', 'server', 'битрикс', 'rabbitmq', 'devops', 'система', 'проект', 'front', 'erp', 'redis', 'ios', 'приложение', 'администрирование', 'kubernetes', 'mongodb', 'верстка', 'микропроцессор', 'микроконтроллер', 'грамотность', 'linux', 'unix', 'реляционный', 'отображение', 'язык', 'английский', 'обеспечение', 'обучение', 'машинный', 'oracle', 'технический', 'database', 'сайт', 'программный', 'ruby', 'ведение', 'тестирование', 'qa', 'команда', 'back', 'etl', 'мышление', 'elasticsearch', 'sap', 'навык', 'информационный', 'wordpress', 'формирование', 'задание', 'clickhouse', 'пк', 'hadoop', 'персонал', 'коммуникативный', 'документация', 'flutter', 'аналитический', 'лидерство', 'многозадачность', 'gamedev', 'unity', 'программировать', 'интегральный', 'dart']</t>
-  </si>
-  <si>
-    <t>['управление', 'api', 'sql', 'bpmn', 'анализ', 'uml', 'разработка', 'системный', 'проект', 'работа', 'технический', 'формирование', 'задание', 'система', 'javascript', 'принцип', 'знание', 'данные', 'sap', 'базовый', 'база', 'лидерство', 'персонал', 'мышление', 'бизнес', 'microsoft', 'процесс', 'bi', 'apache', 'confluence', 'грамотность', 'аналитический', 'организация', 'kafka', 'информационный', 'server', 'postgresql', 'документация', 'erp', 'rabbitmq', 'сценарий', 'пользовательский', 'ведение', 'swagger', 'dwh', 'postman', 'чтение', 'python', 'обеспечение', 'oracle', 'database', 'применение', 'коммуникативный', 'продукт', 'scala', 'kotlin', 'java', 'hadoop', 'интегративный', 'методология', 'idef', 'etl', 'требование', 'сбор', 'git', 'visio', 'проектный', 'оптимизация', 'тестирование', 'qa', 'учет', 'безопасность', 'язык', 'английский', 'команда']</t>
-  </si>
-  <si>
-    <t>['ведение', 'финансовый', 'отчетность', 'анализ', 'управление', 'бюджетирование', 'учет', 'грамотность', 'управленческий', 'финансы', 'microsoft', 'бухгалтерский', 'коммуникативный', 'знание', 'продажа', 'работа', 'excel', 'информационный', 'мышление', 'аналитический', 'документооборот', 'хозяйственный', 'финансово', 'деятельность', 'экономический', 'клиент', 'язык', 'базовый', 'английский', 'инвестиционный', 'процесс', 'бизнес', 'налоговый', 'проведение', 'риск', 'финансирование', 'аудит', 'сфера', 'организация', 'команда', 'локальный', 'акт', 'операция', 'многозадачность', 'затрата', 'разработка', 'нормативный', 'привлечение', 'поиск', 'пк', 'данные', 'powerpoint', 'задолженность', 'дебиторский', 'кредитование', 'проект', 'bi', 'проектный', 'персонал', 'новый', 'договор', 'лидерство', 'инструментальный', 'ценообразование', 'составление', 'банк', 'google', 'office', 'навык', 'консультирование', 'валютный', 'организаторский']</t>
+    <t>['анализ', 'microsoft', 'управление', 'данные', 'финансовый', 'sql', 'грамотность', 'проведение', 'bi', 'мышление', 'знание', 'ведение', 'разработка', 'работа', 'аналитический', 'маркетинговый', 'python', 'исследование', 'отчетность', 'инвестиционный', 'продажа', 'информационный', 'power', 'проект', 'excel', 'область', 'маркетинг', 'основа', 'коммуникативный', 'рынок', 'база', 'бюджетирование', 'стратегия', 'научно', 'исследовательский', 'powerpoint', 'среда', 'конкурентный', 'процесс', 'бизнес', 'язык', 'английский', 'управленческий', 'организация', 'маркетплейс', 'server', 'персонал', 'лидерство', 'хозяйственный', 'финансово', 'бренд', 'создание', 'риск', 'ценообразование', 'оптимизация', 'деятельность', 'обработка', 'учет', 'статистический', 'презентационный', 'материал', 'google', 'tableau', 'apache', 'экономический', 'система', 'продукт', 'тестирование', 'поисковый', 'seo', 'навык', 'сайт', 'публичный', 'презентация', 'выступление', 'базовый', 'финансирование', 'postgresql', 'продвижение', 'операция', 'финансы', 'ассортимент', 'etl', 'моделирование', 'организаторский', 'системный', 'технический', 'бухгалтерский', 'команда', 'analytics', 'sap', 'clickhouse', 'социальный', 'проектный', 'сеть', 'визуализация', 'клиент', 'рекламный', 'веб', 'многозадачность', 'аналитика', 'оценка', 'query', 'dwh', 'инструментальный', 'формирование', 'задание', 'обучаемость', 'адаптивность', 'математический', 'bpmn', 'аудит', 'superset', 'oracle', 'написание', 'текст', 'редактирование', 'api', 'erp', 'database', 'контроль', 'abc', 'airflow', 'visual', 'for', 'basic', 'applications', 'документооборот', 'планирование', 'таргетированный', 'реклама', 'проактивность', 'ответственность', 'настройка', 'медиапланирование', 'интегративный', 'инструмент', 'office', 'кампания', 'crm', 'эффективность', 'кредитование', 'hadoop', 'целеустремленность', 'работоспособность', 'swot', 'pest', 'обучение', 'машинный', 'креативный', 'uml', 'сфера', 'нормативный', 'внимательность', 'локальный', 'пк', 'промо', 'акция', 'стоимость', 'имущество', 'акт', 'самоорганизованность', 'dax', 'умение', 'привлечение', 'поиск', 'spark', 'консультирование', 'sheets', 'закупка', 'manager', 'adwords', 'решение', 'контент', 'дистрибуция', 'adobe', 'инвестор', 'access', 'принимать', 'sense', 'qlik', 'сбыт', 'канал', 'новый', 'документация', 'bigquery', 'docs', 'tag', 'git', 'intelligence', 'составление', 'html', 'css', 'продукция', 'дизайн', 'производственный', 'business', 'битрикс', 'amplitude', 'налоговый', 'photoshop', 'потребитель', 'confluence', 'логистика', 'pivot', 'ibm', 'javascript', 'выполнение', 'outlook', 'appsflyer', 'путь', 'карта', 'cjm', 'grafana', 'актив', 'купля', 'сценарий', 'принцип', 'яндекс', 'затрата', 'kafka', 'ценность', 'товарно', 'материальный', 'интервью', 'директ', 'поставщик', 'стрессоустойчивость', 'qa', 'пользовательский', 'применение', 'firebase', 'finebi', 'ux', 'ui', 'devops', 'биллинг', 'vertica', 'взаимодействие', 'figma', 'plus', 'edition', 'инициативность', 'договор', 'visio', 'enterprise', 'scala', 'kotlin', 'java', 'стандарт', 'международный', 'выставка', 'cognos', 'юридический', 'мобильный', 'лицо', 'btl', 'участие', 'профессиональный', 'метод', 'клиентоориентированность', 'недвижимость', 'валютный', 'mysql', 'чтение', 'задолженность', 'дебиторский', 'statistics', 'spss', 'строительство', 'coreldraw', 'целевой', 'трафик', 'жилой', 'аудитория', 'арбитраж', 'правовой', 'заказчик', 'графический', 'администрирование', 'тренинг', 'коучинг', 'project', 'sas', 'olap', 'nifi', 'appmetrica', 'сми', 'платежеспособность', 'банковский', 'mytarget', 'facebook', 'ads', 'нормативно', 'документ', 'word', 'склад', 'blockchain', 'страхование', 'расчет', 'процентный', 'лояльность', 'кредитный', 'цифровой', 'сделка', 'качество', 'мотивировать', 'адаптировать', 'amocrm', 'онлайн', 'сообщение', 'рассылка', 'anaplan', 'обеспечение', 'подбор', 'wms', 'docker', 'численный', 'transact', 'togaf', 'безопасность', 'seaborn', 'palomars', 'mindbox', 'matplotlib', 'биржа', 'русский', 'мониторинг', 'конструкторский', 'банк', 'корпоративный', 'сервер', 'критический', 'гис', 'roistat', 'приложение', 'логический', 'kubernetes', 'autocad', 'стать', 'логистический', 'low', 'ios', 'illustrator', 'code', 'tilda', 'орган', 'контролировать', 'схема', 'ax', 'внедрение', 'архитектурный', 'teradata', 'mongodb', 'kpi', 'golang', 'android', 'транспортный', 'государственный', 'автозапчасть', 'dynamics', 'ремонт', 'модель', 'внешнеэкономический', 'автоматизация', 'nosql', 'ценный', 'листинг', 'коттеджный', 'бумага', 'hysys', 'aspen', 'эксплуатация', 'доступ', 'gamedev', 'development', 'customer', 'поддержка', 'использование', 'самостоятельность', 'автомобиль', 'метрика', 'мерчандайзинг', 'инвентаризация', 'экспедирование', 'труд', 'складской', 'оплата', 'кассовый', 'смета', 'рыночный', 'риска', 'процедура', 'медиалогия', 'гранд', 'банкротство', 'storage', 'smm', 'simple', 'service', 'key', 'collector', 'amazon', 'adfox', 'пользователь', 'unix', 'saas', 'paas', 'linux', 'itsm', 'iaas', 'end', 'creatio', 'юнит', 'экономика', 'характеристика', 'устройство', 'строительный', 'средство', 'подрядчик', 'немецкий', 'конструкция', 'tarantool', 'salesforce', 'mixpanel', 'db', 'монтаж', 'методология', 'диаграмма', 'idef', 'фотография', 'спецтехника', 'ретушь', 'прототипирование', 'здание', 'диаграммами', 'ветеринария', 'powershell', 'notes', 'matlab', 'lotus', 'dfd', 'data', 'услуга', 'производство', 'программный', 'проектирование', 'опытно', 'легковой', 'доставка', 'rabbitmq', 'prometheus', 'postman', 'elasticsearch', 'arenadatadb', 'обслуживание', 'net', 'учебный', 'требование', 'сбор', 'преподавание', 'предприятие', 'подготовка', 'грузовой', 'возражение', 'zabbix', 'studio', 'scada', 'php', 'front', 'тендерный', 'судебный', 'скорый', 'релиз', 'реаниматология', 'разбирательство', 'продюсирование', 'пресс', 'предупредительный', 'помощь', 'планово', 'компания', 'запись', 'декларант', 'видеолекция', 'бригада', 'аванкор', 'target', 'catia', 'позитивный', 'компьютерный', 'эмитент', 'ученик', 'спарк', 'рецептура', 'интерфакс', 'инкотермс', 'вэд', 'smartvista', 'professional', 'pro', 'premiere', 'paint', 'material', 'mapinfo', 'effects', 'dns', 'design', 'arcgis', 'after', 'семинар', 'реляционный', 'отображение', 'микропроцессор', 'микроконтроллер', 'гаджет', 'бытовой', 'аренда', 'автотранспорт', 'webdriver', 'teamcenter', 'selenium', 'qgis', 'mathcad', 'indesign', 'directory', 'dbeaver', 'active', 'фотосъемка', 'фирма', 'отгрузка', 'лизинг', 'tm', 'suite', 'slack', 'rx', 'nx', 'kibana', 'directum', 'cassandra', 'architect', 'техника', 'сметный', 'прием', 'объектно', 'компас', 'коммутатор', 'испанский', 'видеозвонок', 'банкинг', 'wordpress', 'terrasoft', 'swagger', 'back', 'archimate', 'финанс', 'построение', 'инженерный', 'изыскание', 'бит', 'sharepoint', 'redis', 'iiko', 'hr', 'aris', 'программа', 'парус', 'бухгалтерия', 'оргтехника', 'кадровый', 'автоматизированный']</t>
+  </si>
+  <si>
+    <t>['управление', 'анализ', 'microsoft', 'данные', 'грамотность', 'sql', 'работа', 'разработка', 'мышление', 'аналитический', 'bi', 'информационный', 'технический', 'бизнес', 'процесс', 'формирование', 'задание', 'excel', 'проект', 'bpmn', 'знание', 'организация', 'система', 'продажа', 'api', 'ведение', 'python', 'база', 'проведение', 'системный', 'erp', 'uml', 'базовый', 'powerpoint', 'коммуникативный', 'sap', 'персонал', 'power', 'лидерство', 'научно', 'исследовательский', 'исследование', 'маркетинговый', 'документация', 'рынок', 'server', 'отчетность', 'обработка', 'оптимизация', 'статистический', 'учет', 'язык', 'команда', 'среда', 'конкурентный', 'английский', 'javascript', 'финансовый', 'принцип', 'ценообразование', 'создание', 'confluence', 'презентационный', 'материал', 'инструментальный', 'visio', 'область', 'чтение', 'google', 'многозадачность', 'документооборот', 'бухгалтерский', 'публичный', 'презентация', 'нормативный', 'выступление', 'пк', 'риск', 'apache', 'ассортимент', 'проектный', 'управленческий', 'маркетинг', 'postgresql', 'маркетплейс', 'основа', 'обучение', 'интегративный', 'машинный', 'применение', 'сценарий', 'продукт', 'тестирование', 'пользовательский', 'tableau', 'oracle', 'моделирование', 'математический', 'office', 'клиент', 'консультирование', 'access', 'методология', 'idef', 'etl', 'crm', 'database', 'экономический', 'query', 'visual', 'обучаемость', 'адаптивность', 'требование', 'сбор', 'for', 'basic', 'applications', 'analytics', 'dwh', 'целеустремленность', 'работоспособность', 'аналитика', 'планирование', 'стратегия', 'визуализация', 'поисковый', 'seo', 'веб', 'сайт', 'abc', 'qa', 'внимательность', 'мониторинг', 'обеспечение', 'логистика', 'проактивность', 'ответственность', 'навык', 'hadoop', 'сми', 'kafka', 'битрикс', 'организаторский', 'postman', 'swot', 'pest', 'самоорганизованность', 'бюджетирование', 'ux', 'ui', 'git', 'business', 'безопасность', 'project', 'налоговый', 'бренд', 'ibm', 'абс', 'хозяйственный', 'финансово', 'pivot', 'деятельность', 'дизайн', 'spark', 'html', 'css', 'инвестиционный', 'figma', 'закупка', 'цфт', 'swagger', 'sheets', 'outlook', 'dynamics', 'statistics', 'spss', 'dax', 'рекламный', 'scala', 'kotlin', 'java', 'написание', 'ценность', 'товарно', 'материальный', 'инструмент', 'ax', 'оценка', 'решение', 'sas', 'кредитование', 'банк', 'документ', 'правовой', 'нормативно', 'сфера', 'умение', 'контроль', 'локальный', 'аудит', 'tag', 'manager', 'docs', 'rx', 'directum', 'производственный', 'креативный', 'эффективность', 'акт', 'wms', 'clickhouse', 'devops', 'недвижимость', 'зарплата', 'интервью', 'принимать', 'studio', 'составление', 'программирование', 'elma', 'взаимодействие', 'word', 'airflow', 'медиалогия', 'текст', 'редактирование', 'метод', 'заказчик', 'процентный', 'ориентированный', 'кредитный', 'intelligence', 'складской', 'объектно', 'superset', 'сеть', 'диаграмма', 'тренинг', 'коучинг', 'автоматизация', 'mysql', 'itsm', 'aris', 'er', 'adobe', 'sense', 'qlik', 'программный', 'администрирование', 'жилой', 'enterprise', 'camunda', 'стрессоустойчивость', 'клиентоориентированность', 'путь', 'карта', 'cjm', 'продвижение', 'поставщик', 'мобильный', 'wsdl', 'photoshop', 'plus', 'edition', 'страхование', 'релейный', 'защита', 'автоматика', 'rabbitmq', 'инициативность', 'предприятие', 'cognos', 'банковский', 'актив', 'docker', 'график', 'appsflyer', 'adwords', 'net', 'olap', 'яндекс', 'стать', 'потребитель', 'бит', 'php', 'качество', 'тоир', 'настройка', 'контурэкстерна', 'amplitude', 'mongodb', 'выполнение', 'amocrm', 'затрата', 'unix', 'linux', 'hr', 'blockchain', 'целевой', 'промо', 'инвентаризация', 'гис', 'аудитория', 'акция', 'terrasoft', 'elasticsearch', 'cad', 'социальный', 'пользователь', 'онлайн', 'diasoft', 'кампания', 'аренда', 'экспедирование', 'arcgis', 'финанс', 'конструкторский', 'grafana', 'цифровой', 'сапр', 'transact', 'android', 'транспортный', 'стоимость', 'имущество', 'tm', 'suite', 'директ', 'qgis', 'склад', 'парус', 'биржа', 'nosql', 'nav', 'опытно', 'критический', 'youtrack', 'teradata', 'финансирование', 'data', 'поддержка', 'труд', 'оплата', 'договор', 'таргетированный', 'реклама', 'позитивный', 'логический', 'строительство', 'soapui', 'autodesk', 'модель', 'контент', 'инженерный', 'изыскание', 'дистрибуция', 'saas', 'paas', 'iaas', 'передача', 'метрика', 'обслуживание', 'услуга', 'операция', 'сделка', 'yaml', 'schema', 'json', 'самостоятельность', 'медиапланирование', 'лояльность', 'купля', 'конструктор', 'диаграммами', 'openshift', 'dfd', 'юридический', 'построение', 'лицо', 'low', 'ios', 'end', 'code', 'химический', 'формулировать', 'мысль', 'выражать', 'численный', 'расчет', 'togaf', 'red', 'hat', 'archimate', 'использование', 'финансы', 'сбыт', 'подготовка', 'канал', 'windows', 'sharepoint', 'front', 'русский', 'nifi', 'kibana', 'development', 'customer', 'coreldraw', 'architect', 'производство', 'рецептура', 'wireshark', 'bigquery', 'продукция', 'autocad', 'предложение', 'мерчандайзинг', 'коммерческий', 'архитектурный', 'альф', 'авто', 'web', 'anaplan', 'семинар', 'подрядчик', 'бронирование', 'vertica', 'teamcenter', 'iot', 'directory', 'active', 'оргтехника', 'компьютерный', 'сетевой', 'логистический', 'illustrator', 'helpdesk', 'хроматографический', 'otrs', 'mediascope', 'graylog', 'bizagi', 'товар', 'прототипирование', 'схема', 'приложение', 'оборудование', 'задолженность', 'дебиторский', 'трафик', 'сметный', 'проектирование', 'арбитраж', 'кадровый', 'электроприбор', 'конструирование', 'ассемблер', 'vanessa', 'planning', 'mdx', 'key', 'collector', 'canva', 'automation', 'внешнеэкономический', 'creatio', 'чпу', 'станок', 'стандарт', 'сборка', 'реляционный', 'платежеспособность', 'оформление', 'отображение', 'мойсклад', 'микропроцессор', 'микроконтроллер', 'salesforce', 'ruby', 'revit', 'qwery', 'pascal', 'kvm', 'esb', 'delphi', 'монтаж', 'kubernetes', 'эксплуатация', 'экспертиза', 'технология', 'техник', 'сотовый', 'связь', 'прохождение', 'отгрузка', 'лизинг', 'доступ', 'matlab', 'gamedev', 'finebi', 'автоматизированный', 'сообщение', 'сервер', 'прием', 'компас', 'ипотечный', 'доставка', 'внутренний', 'видеозвонок', 'банкинг', 'golang', 'arenadatadb', 'scada', 'iiko', 'эмиссия', 'фонд', 'федеральный', 'фгос', 'теплоснабжение', 'спфс', 'реализация', 'отчет', 'ориентация', 'нефтепродукт', 'местность', 'инфо', 'vipnet', 'renga', 'paradigm', 'metabase', 'lightroom', 'exasol', 'eam', 'dod', 'bim', 'программа', 'подбор', 'бухгалтерия', 'эмитент', 'учреждение', 'таможенный', 'россия', 'процедура', 'проектно', 'образовательный', 'мединский', 'маршрутизатор', 'лабораторный', 'диагностика', 'декларирование', 'галактика', 'вэд', 'витрина', 'банкротство', 'way', 'uipath', 'smm', 'quik', 'qort', 'professional', 'palomars', 'navisworks', 'max', 'mapinfo', 'lua', 'firebird', 'ds', 'adfox', 'мотивировать', 'адаптировать', 'участие', 'соблюдение', 'профессиональный', 'протоколирование', 'международный', 'корпоративный', 'комплексный', 'имитационный', 'государственный', 'выставка', 'видеосъемка', 'webdriver', 'selenium', 'safe', 'platform', 'pdm', 'oauth', 'movie', 'maker', 'lims', 'indesign', 'getcourse', 'flink', 'flex', 'dbeaver', 'cloud', 'чертеж', 'фотография', 'фирма', 'торговля', 'структура', 'ретушь', 'организационный', 'заказ', 'егаис', 'автокредитование', 'unity', 'slack', 'powershell', 'nx', 'notes', 'lotus', 'lms', 'firebase', 'cassandra', 'appmetrica', 'техника', 'рассылка', 'легковой', 'внедрение', 'wordpress', 'roistat', 'prometheus', 'kpi', 'back', 'ремонт', 'привлечение', 'преподавать', 'преподавание', 'поиск', 'конфликт', 'графический', 'видео', 'zabbix', 'redis', 'телефонный', 'расчетно', 'операционный', 'автомобиль', 'новый', 'кассовый']</t>
+  </si>
+  <si>
+    <t>['управление', 'бизнес', 'разработка', 'процесс', 'bi', 'организация', 'microsoft', 'bpmn', 'анализ', 'работа', 'грамотность', 'проект', 'мышление', 'аналитический', 'система', 'технический', 'оптимизация', 'sql', 'формирование', 'задание', 'данные', 'информационный', 'uml', 'коммуникативный', 'ведение', 'лидерство', 'знание', 'персонал', 'excel', 'системный', 'документация', 'продукт', 'erp', 'confluence', 'проведение', 'база', 'visio', 'powerpoint', 'power', 'продажа', 'применение', 'api', 'научно', 'исследовательский', 'язык', 'английский', 'нормативный', 'отчетность', 'методология', 'idef', 'server', 'сценарий', 'пользовательский', 'управленческий', 'создание', 'презентационный', 'материал', 'базовый', 'требование', 'сбор', 'рынок', 'crm', 'публичный', 'презентация', 'выступление', 'команда', 'документооборот', 'python', 'финансовый', 'консультирование', 'sap', 'business', 'интегративный', 'обучаемость', 'битрикс', 'адаптивность', 'клиент', 'studio', 'чтение', 'проектный', 'тестирование', 'область', 'учет', 'javascript', 'логистика', 'маркетинговый', 'среда', 'конкурентный', 'навык', 'многозадачность', 'карта', 'организаторский', 'путь', 'cjm', 'ux', 'ui', 'qa', 'бюджетирование', 'инструментальный', 'исследование', 'обеспечение', 'риск', 'дизайн', 'wms', 'самоорганизованность', 'figma', 'составление', 'aris', 'принцип', 'пк', 'бухгалтерский', 'postgresql', 'умение', 'office', 'elma', 'решение', 'google', 'access', 'целеустремленность', 'работоспособность', 'автоматизация', 'стратегия', 'обработка', 'контроль', 'oracle', 'enterprise', 'визуализация', 'project', 'безопасность', 'query', 'статистический', 'принимать', 'планирование', 'аудит', 'прототипирование', 'программный', 'моделирование', 'маркетплейс', 'потребитель', 'проактивность', 'правовой', 'ответственность', 'нормативно', 'документ', 'закупка', 'database', 'architect', 'производственный', 'внимательность', 'экономический', 'tableau', 'dwh', 'тренинг', 'маркетинг', 'коучинг', 'предприятие', 'затрата', 'itsm', 'devops', 'математический', 'стрессоустойчивость', 'метод', 'качество', 'диаграмма', 'scala', 'kotlin', 'java', 'сфера', 'инвестиционный', 'visual', 'for', 'basic', 'applications', 'ценообразование', 'складской', 'кредитование', 'деятельность', 'net', 'docs', 'intelligence', 'хозяйственный', 'финансово', 'локальный', 'акт', 'ассортимент', 'основа', 'выполнение', 'dynamics', 'etl', 'clickhouse', 'ax', 'маркировка', 'apache', 'бренд', 'банковский', 'аналитика', 'rx', 'directum', 'camunda', 'swot', 'pest', 'mysql', 'клиентоориентированность', 'заказчик', 'взаимодействие', 'amocrm', 'сырье', 'радиосистема', 'процессный', 'готовый', 'outlook', 'lims', 'youtrack', 'togaf', 'terrasoft', 'postman', 'ibm', 'обучение', 'веб', 'adobe', 'hadoop', 'creatio', 'структура', 'стоимость', 'организационный', 'имущество', 'plus', 'edition', 'экспедирование', 'оценка', 'актив', 'меркурий', 'машинный', 'инструмент', 'teradata', 'swagger', 'pivot', 'транспортный', 'инициативность', 'протоколирование', 'операция', 'sheets', 'юридический', 'лицо', 'конструкторский', 'валютный', 'nosql', 'реинжиниринг', 'видеоаналитика', 'сотовый', 'связь', 'контурэкстерна', 'егаис', 'dax', 'word', 'продвижение', 'sense', 'qlik', 'расчет', 'опытно', 'метрика', 'superset', 'cognos', 'anaplan', 'интервью', 'автоматизированный', 'яндекс', 'преподавать', 'модель', 'sharepoint', 'saas', 'paas', 'kafka', 'illustrator', 'iaas', 'git', 'blockchain', 'обслуживание', 'юнит', 'экономика', 'зарплата', 'qwery', 'продукция', 'оборудование', 'photoshop', 'abc', 'финансирование', 'уровень', 'коммутационный', 'диаграммами', 'автокредитование', 'olap', 'notes', 'lotus', 'finebi', 'dfd', 'data', 'amplitude', 'цифровой', 'поисковый', 'seo', 'analytics', 'эквайринг', 'цфт', 'целевой', 'передача', 'ипотечный', 'банкинг', 'аудитория', 'архитектурный', 'transact', 'сайт', 'мотивировать', 'использование', 'адаптировать', 'поставщик', 'онлайн', 'логистический', 'внешнеэкономический', 'абс', 'sas', 'php', 'low', 'iiko', 'end', 'code', 'дорожный', 'эффективность', 'схема', 'рекламный', 'расчетно', 'приложение', 'подбор', 'парус', 'операционный', 'администрирование', 'услуга', 'труд', 'производство', 'оплата', 'настройка', 'кассовый', 'банк', 'электроприбор', 'сппр', 'принятие', 'мегаплан', 'конструирование', 'график', 'qort', 'opencart', 'поддержка', 'креативный', 'строительный', 'сборка', 'прибор', 'коммуникативная', 'имитационный', 'измерительный', 'tag', 'soapui', 'qgis', 'pdm', 'manager', 'keeper', 'asana', 'техник', 'медиапланирование', 'лояльность', 'купля', 'openshift', 'naumen', 'er', 'appmetrica', 'численный', 'сметный', 'коммутатор', 'испанский', 'гис', 'внутренний', 'внедрение', 'альф', 'авто', 'roistat', 'red', 'kpi', 'hat', 'back', 'arenadatadb', 'archimate', 'airflow', 'финансы', 'финанс', 'учебный', 'сетевой', 'построение', 'пользователь', 'бит', 'windows', 'scada', 'redis', 'nav', 'hr', 'helpdesk', 'grafana', 'front', 'docker', 'ценность', 'товарно', 'таргетированный', 'склад', 'самостоятельность', 'реклама', 'программа', 'налоговый', 'материальный', 'логический', 'бухгалтерия', 'биржа', 'kubernetes', 'autocad', 'текст', 'редактирование', 'оргтехника', 'компьютерный', 'кадровый', 'договор', 'написание', 'html', 'css']</t>
+  </si>
+  <si>
+    <t>['проведение', 'тренинг', 'коучинг', 'продажа', 'обучаемость', 'адаптивность', 'грамотность', 'персонал', 'управление', 'коммуникативный', 'публичный', 'презентация', 'выступление', 'учебный', 'лидерство', 'организаторский', 'навык', 'потребитель', 'процесс', 'организация', 'анализ', 'техник', 'работа', 'обучение', 'умение', 'команда', 'базовый', 'microsoft', 'мотивировать', 'знание', 'адаптировать', 'инструментальный', 'клиент', 'powerpoint', 'заказчик', 'взаимодействие', 'самоорганизованность', 'целеустремленность', 'работоспособность', 'ведение', 'создание', 'презентационный', 'материал', 'мышление', 'методический', 'многозадачность', 'проект', 'информационный', 'подбор', 'документооборот', 'разработка', 'психология', 'язык', 'бизнес', 'английский', 'пк', 'планирование', 'тестирование', 'qa', 'область', 'общий', 'креативный', 'преподавать', 'проактивность', 'ответственность', 'аналитический', 'нормативный', 'документация', 'ученик', 'отчетность', 'консультирование', 'excel', 'система', 'формат', 'оптимизация', 'клиентоориентированность', 'возражение', 'преподавание', 'онлайн', 'образовательный', 'продукт', 'оценка', 'управленческий', 'страхование', 'контроль', 'bi', 'office', 'стрессоустойчивость', 'договор', 'качество', 'грузовой', 'составление', 'системный', 'решение', 'принимать', 'правовой', 'логистика', 'интегративный', 'детский', 'программа', 'автомобиль', 'конфликт', 'технический', 'психологический', 'складской', 'характеристика', 'устройство', 'средство', 'конструкция', 'недвижимость', 'жилой', 'photoshop', 'adobe', 'инициативность', 'внимательность', 'crm', 'фотосъемка', 'структура', 'спецтехника', 'организационный', 'нормативно', 'документ', 'google', 'производство', 'outlook', 'ремонт', 'ресторанный', 'менеджмент', 'webtutor', 'написание', 'позитивный', 'закупка', 'мерчандайзинг', 'испанский', 'интервью', 'visio', 'sheets', 'стать', 'графический', 'транспортный', 'маркетинг', 'данные', 'выполнение', 'word', 'семинар', 'ремонтный', 'гарантийный', 'машинный', 'купля', 'lms', 'дизайн', 'критический', 'финансовый', 'учет', 'поддержка', 'основа', 'использование', 'социальный', 'привлечение', 'поиск', 'видео', 'эстетический', 'косметология', 'коррекция', 'возрастной', 'телефонный', 'применение', 'монтаж', 'локальный', 'биржа', 'акт', 'текст', 'редактирование', 'новый', 'актив', 'светотехника', 'ребенок', 'работать', 'формирование', 'рынок', 'производственный', 'обслуживание', 'задание', 'битрикс', 'sql', 'sap', 'project', 'html', 'docs', 'css', 'movie', 'maker', 'getcourse', 'flutter', 'ветеринария', 'автокредитование', 'tilda', 'development', 'customer', 'сапр', 'промо', 'внедрение', 'видеозвонок', 'акция', 'kpi', 'cad', 'логистический', 'windows', 'swot', 'pest', 'aris', 'схема', 'среда', 'продвижение', 'методология', 'метод', 'конкурентный', 'scala', 'kotlin', 'java', 'idef', 'цифровой', 'ценообразование', 'хозяйственный', 'финансово', 'труд', 'поисковый', 'оплата', 'кредитование', 'компьютерный', 'seo', 'confluence', 'чтение', 'статистический', 'сайт', 'проектный', 'обработка', 'деятельность', 'бюджетирование', 'база', 'net', 'erp', 'amocrm']</t>
+  </si>
+  <si>
+    <t>['управление', 'продукт', 'грамотность', 'анализ', 'проект', 'коммуникативный', 'работа', 'проведение', 'продажа', 'мышление', 'знание', 'лидерство', 'персонал', 'разработка', 'аналитический', 'рынок', 'исследование', 'маркетинговый', 'язык', 'английский', 'публичный', 'презентация', 'выступление', 'microsoft', 'среда', 'конкурентный', 'ассортимент', 'технический', 'система', 'процесс', 'навык', 'бизнес', 'маркетинг', 'бренд', 'организаторский', 'системный', 'ценообразование', 'формирование', 'задание', 'интегративный', 'клиент', 'команда', 'информационный', 'область', 'bi', 'стратегия', 'маркетплейс', 'организация', 'основа', 'ux', 'ui', 'базовый', 'ведение', 'дизайн', 'данные', 'тестирование', 'создание', 'потребитель', 'продвижение', 'оптимизация', 'презентационный', 'материал', 'powerpoint', 'закупка', 'excel', 'development', 'customer', 'поставщик', 'самоорганизованность', 'инструментальный', 'составление', 'планирование', 'научно', 'исследовательский', 'целеустремленность', 'работоспособность', 'применение', 'sql', 'метод', 'многозадачность', 'обучаемость', 'адаптивность', 'карта', 'путь', 'cjm', 'документация', 'привлечение', 'поиск', 'креативный', 'google', 'новый', 'чтение', 'документооборот', 'консультирование', 'договор', 'умение', 'пк', 'обеспечение', 'битрикс', 'сценарий', 'пользовательский', 'решение', 'crm', 'confluence', 'предложение', 'коммерческий', 'подготовка', 'figma', 'принимать', 'отчетность', 'проактивность', 'ответственность', 'qa', 'analytics', 'adobe', 'контроль', 'инструмент', 'amplitude', 'база', 'модель', 'saas', 'paas', 'iaas', 'заказчик', 'взаимодействие', 'тренинг', 'сайт', 'коучинг', 'веб', 'проектный', 'поисковый', 'кредитование', 'seo', 'рекламный', 'аналитика', 'мобильный', 'безопасность', 'photoshop', 'финансовый', 'эффективность', 'логистика', 'оценка', 'учебный', 'использование', 'python', 'abc', 'клиентоориентированность', 'docs', 'devops', 'gamedev', 'выполнение', 'scala', 'kotlin', 'java', 'autocad', 'риск', 'программный', 'ценность', 'товарно', 'материальный', 'html', 'css', 'текст', 'редактирование', 'банковский', 'учет', 'внимательность', 'качество', 'производственный', 'office', 'прием', 'написание', 'инициативность', 'обучение', 'bpmn', 'server', 'cad', 'сеть', 'нормативный', 'erp', 'dynamics', 'подбор', 'project', 'swot', 'pest', 'ios', 'параллельный', 'правовой', 'нормативно', 'документ', 'бюджетирование', 'сапр', 'ипотечный', 'api', 'сбыт', 'канал', 'archicad', 'стрессоустойчивость', 'postgresql', 'прототипирование', 'программирование', 'юридический', 'требование', 'сбор', 'лицо', 'javascript', 'продукция', 'sheets', 'мотивировать', 'адаптировать', 'целевой', 'аудитория', 'android', 'социальный', 'логистический', 'itsm', 'станция', 'лояльность', 'заказ', 'автоматический', 'машинный', 'администрирование', 'ax', 'выставка', 'safe', 'производство', 'интервью', 'актив', 'электротехнический', 'электротехника', 'схема', 'принцип', 'задолженность', 'дебиторский', 'внешнеэкономический', 'php', 'операция', 'инвентаризация', 'обслуживание', 'деятельность', 'участие', 'профессиональный', 'оформление', 'моделирование', 'outlook', 'диагностика', 'телефонный', 'wms', 'пользователь', 'графический', 'unix', 'linux', 'git', 'blockchain', 'apache', 'технологический', 'чертеж', 'товар', 'техник', 'отгрузка', 'управленческий', 'страхование', 'конструкторский', 'illustrator', 'статистический', 'обработка', 'цифровой', 'услуга', 'складской', 'uml', 'тмц', 'сохранность', 'сотовый', 'связь', 'контент', 'инвестиционный', 'дистрибуция', 'nav', 'kafka', 'поддержка', 'amocrm', 'функциональный', 'прибор', 'измерительный', 'adwords', 'эквайринг', 'опытно', 'мерчандайзинг', 'коммутатор', 'склад', 'преподавать', 'helpdesk', 'медиапланирование', 'firebase', 'аудит', 'автоматизированный', 'срок', 'годность', 'storehouse', 'приложение', 'позитивный', 'автомобиль', 'clickhouse', 'трафик', 'критический', 'арбитраж', 'wordpress', 'формат', 'кампания', 'revit', 'keeper', 'autodesk', 'asana', 'visio', 'конфликт', 'low', 'end', 'code', 'травматология', 'технико', 'ролик', 'рисование', 'перевод', 'ортопедия', 'мнение', 'лидер', 'блогер', 'анонс', 'лизинг', 'tilda', 'appmetrica', 'sap', 'логический', 'tableau', 'промо', 'проектирование', 'легковой', 'youtrack', 'mongodb', 'кассовый', 'access', 'упаковка', 'строительно', 'сооружение', 'светотехника', 'размещение', 'разгрузочный', 'погрузочно', 'монтажный', 'лабораторный', 'груз', 'voip', 'unreal', 'engine', 'btl', 'ansys', 'преподавание', 'построение', 'онлайн', 'возражение', 'валютный', 'redis', 'mysql', 'word', 'хозяйство', 'соблюдение', 'подрядчик', 'платежеспособность', 'небольшой', 'грузовик', 'автозапчасть', 'salesforce', 'mixpanel', 'математический', 'диаграмма', 'kubernetes', 'мониторинг', 'конструктор', 'здание', 'slack', 'lms', 'axelot', 'экспедирование', 'хозяйственный', 'финансово', 'труд', 'оплата', 'настройка', 'техника', 'расчет', 'компас', 'внутренний', 'web', 'spark', 'rabbitmq', 'prometheus', 'golang', 'elasticsearch', 'back', 'транспортный', 'net', 'сетевой', 'грузовой', 'zabbix', 'sharepoint', 'scada', 'sas', 'iiko', 'grafana', 'front', 'docker', 'creatio', 'эндоскопия', 'подразделение', 'отделка', 'cfx', 'таргетированный', 'реклама', 'расчетно', 'программа', 'операционный', 'монтаж', 'методология', 'idef', 'кадровый', 'банк', 'oracle', 'database', 'сантехнический', 'риторика', 'помещение', 'плата', 'печатный', 'мегаплан', 'маршрутизатор', 'инкотермс', 'doors', 'designer', 'altium', 'юнит', 'экономика', 'сборка', 'ремонтный', 'мойсклад', 'коммуникативная', 'инжиниринг', 'инвестор', 'видеосъемка', 'бронирование', 'platform', 'mathcad', 'indesign', 'getcourse', 'flutter', 'flex', 'cloud', 'appsflyer', 'фотосъемка', 'технология', 'спецтехника', 'ориентированный', 'ветеринария', 'unity', 'openshift', 'nx', 'naumen', 'matlab', 'data', 'coreldraw', 'численный', 'цфт', 'сообщение', 'сметный', 'рассылка', 'объектно', 'метрика', 'доставка', 'биллинг', 'альф', 'акция', 'авто', 'red', 'hat', 'яндекс', 'инженерный', 'изыскание', 'видео', 'абс', 'studio', 'nosql', 'hr', 'hadoop', 'самостоятельность', 'оборудование', 'визуализация', 'etl', 'dwh', 'оргтехника', 'компьютерный', 'бухгалтерский', 'power']</t>
+  </si>
+  <si>
+    <t>['ведение', 'грамотность', 'документооборот', 'базовый', 'знание', 'работа', 'пк', 'коммуникативный', 'информационный', 'microsoft', 'учет', 'команда', 'управление', 'данные', 'база', 'инструментальный', 'складской', 'оргтехника', 'оформление', 'прием', 'внимательность', 'excel', 'инвентаризация', 'ценность', 'товарно', 'материальный', 'заказ', 'проведение', 'клиент', 'логистика', 'бухгалтерский', 'область', 'многозадачность', 'отчетность', 'отгрузка', 'консультирование', 'контроль', 'office', 'проактивность', 'ответственность', 'outlook', 'возврат', 'обучаемость', 'адаптивность', 'система', 'продажа', 'поставщик', 'мышление', 'wms', 'взаимодействие', 'аналитический', 'заказчик', 'груз', 'погрузочно', 'разгрузочный', 'целеустремленность', 'работоспособность', 'самоорганизованность', 'клиентоориентированность', 'стрессоустойчивость', 'договор', 'word', 'обеспечение', 'составление', 'sap', 'анализ', 'тмц', 'сохранность', 'навык', 'организаторский', 'erp', 'битрикс', 'меркурий', 'обслуживание', 'powerpoint', 'качество', 'закупка', 'егаис', 'гарантийный', 'задолженность', 'дебиторский', 'экспедирование', 'adobe', 'умение', 'транспортный', 'google', 'кассовый', 'операция', 'банковский', 'crm', 'маркетплейс', 'технический', 'доставка', 'касса', 'язык', 'audition', 'маркировка', 'товар', 'docs', 'преподавать', 'контент', 'дистрибуция', 'создание', 'dynamics', 'срок', 'годность', 'обработка', 'английский', 'привлечение', 'поиск', 'программа', 'ax', 'планирование', 'размещение', 'организация', 'склад', 'возражение', 'решение', 'принимать', 'персонал', 'лидерство', 'статистический', 'разработка', 'производственный', 'написание', 'новый', 'интервью', 'photoshop', 'выполнение', 'текст', 'редактирование', 'access', 'хозяйство', 'конфликт', 'ценообразование', 'техника', 'соблюдение', 'оптимизация', 'торговля', 'внутренний', 'процесс', 'бизнес', 'инициативность', 'безопасность', 'тренинг', 'коучинг', 'видеозвонок', 'позитивный', 'мойсклад', 'sheets', 'postgresql', 'маршрут', 'публичный', 'презентация', 'выступление', 'sql', 'таможенный', 'декларирование', 'мерчандайзинг', 'axelot', 'видеосъемка', 'подготовка', 'графический', 'видео', 'производство', 'налоговый', 'монтаж', 'администрирование', 'coreldraw', 'логистический', 'системный', 'сайт', 'документ', 'физический', 'выносливость', 'дизайн', 'телефонный', 'схема', 'чтение', 'проект', 'презентационный', 'материал', 'интегративный', 'документация', 'социальный', 'фотография', 'ретушь', 'риторика', 'сеть', 'продвижение', 'формирование', 'финансовый', 'правовой', 'html', 'css', 'amocrm', 'сми', 'гаджет', 'бытовой', 'труд', 'поисковый', 'оплата', 'банк', 'seo', 'стать', 'ремонт', 'сортировка', 'разгрузочные', 'инкассация', 'выдача', 'acrobat', 'фирма', 'русский', 'ветеринария', 'логический', 'веб', 'аналитика', 'промо', 'акция', 'программный', 'упаковка', 'сантехнический', 'pro', 'premiere', 'paint', 'effects', 'after', 'сетевой', 'сбыт', 'канал', 'инженерный', 'изыскание', 'nav', 'основа', 'маркетинг', 'креативный', 'net', 'протоколирование', 'vr', 'продукция', 'парус', 'оборудование', 'autocad', 'экспертиза', 'чертеж', 'фотосъемка', 'станция', 'прохождение', 'мониторинг', 'автоматический', 'хозяйственный', 'финансово', 'страхование', 'настройка', 'аудит', 'oracle', 'database', 'предложение', 'коммерческий', 'альф', 'авто', 'управленческий', 'проектный', 'поддержка', 'нормативно', 'использование', 'деятельность', 'bi', 'предприятие', 'затрата', 'грузовой', 'unix', 'linux', 'illustrator', 'iiko', 'helpdesk', 'служба', 'португальский', 'контрактный', 'больнинец', 'publisher', 'среда', 'конкурентный', 'визуализация', 'автомобиль', 'sense', 'qlik', 'clickhouse', 'риск', 'кредитование', 'кадровый', 'server', 'api', 'analytics', 'чистота', 'строительно', 'порядок', 'поддержание', 'общий', 'монтажный', 'рынок', 'бюджетирование', 'характеристика', 'устройство', 'средство', 'психология', 'немецкий', 'конструкция', 'бронирование', 'автотранспорт', 'автозапчасть', 'pascal', 'delphi', 'спецтехника', 'контурэкстерна', 'сервер', 'недвижимость', 'испанский', 'ипотечный', 'жилой', 'web', 'финансы', 'исследование', 'ассортимент', 'zabbix', 'windows', 'самостоятельность', 'расчетно', 'подбор', 'операционный', 'бухгалтерия', 'kubernetes', 'etl', 'dwh', 'услуга', 'тестирование', 'научно', 'моделирование', 'маркетинговый', 'исследовательский', 'автоматизированный', 'qa', 'power', 'нормативный', 'мотивировать', 'задание', 'адаптировать', 'project']</t>
+  </si>
+  <si>
+    <t>['javascript', 'разработка', 'scala', 'kotlin', 'java', 'git', 'php', 'sql', 'html', 'css', 'api', 'postgresql', 'python', 'управление', 'мобильный', 'программирование', 'объектно', 'docker', 'знание', 'ориентированный', 'mysql', 'работа', 'apache', 'net', 'базовый', 'данные', 'принцип', 'golang', 'microsoft', 'end', 'база', 'kafka', 'android', 'server', 'битрикс', 'rabbitmq', 'devops', 'система', 'проект', 'front', 'erp', 'redis', 'ios', 'приложение', 'администрирование', 'kubernetes', 'mongodb', 'верстка', 'микропроцессор', 'микроконтроллер', 'грамотность', 'linux', 'unix', 'реляционный', 'отображение', 'язык', 'английский', 'обеспечение', 'обучение', 'машинный', 'oracle', 'технический', 'database', 'сайт', 'программный', 'ruby', 'ведение', 'тестирование', 'qa', 'команда', 'back', 'etl', 'мышление', 'elasticsearch', 'sap', 'навык', 'информационный', 'wordpress', 'формирование', 'задание', 'clickhouse', 'пк', 'hadoop', 'персонал', 'коммуникативный', 'документация', 'flutter', 'аналитический', 'лидерство', 'многозадачность', 'gamedev', 'unity', 'программировать', 'интегральный', 'dart', 'ux', 'ui', 'дизайн', 'vhdl', 'airflow', 'учет', 'сеть', 'simatic', 'проактивность', 'ответственность', 'pascal', 'delphi', 'nosql', 'spark', 'анализ', 'построение', 'task', 'queue', 'celery', 'dwh', 'обучаемость', 'адаптивность', 'bi', 'figma', 'автоматизированный', 'websocket', 'wincc', 'sqlite', 'бухгалтерский', 'transact', 'целеустремленность', 'работоспособность', 'моделирование', 'процесс', 'самоорганизованность', 'проектирование', 'компьютерный', 'схема', 'документооборот', 'бизнес', 'tia', 'portal', 'coroutines', 'оптимизация', 'численный', 'расчет', 'продукт', 'confluence', 'scada', 'xcode', 'плата', 'печатный', 'modx', 'openshift', 'matlab', 'нормативный', 'crm', 'red', 'hat', 'cad', 'чтение', 'финансовый', 'blockchain', 'организация', 'cmake', 'монтаж', 'инструментальный', 'power', 'autodesk', 'поисковый', 'seo', 'designer', 'altium', 'memcached', 'безопасность', 'актив', 'swagger', 'opengl', 'конструктор', 'цифровой', 'создание', 'системный', 'решение', 'grafana', 'сапр', 'ассемблер', 'camunda', 'пуско', 'наладочный', 'контроллер', 'настройка', 'сетевой', 'организаторский', 'консультирование', 'клиент', 'проведение', 'codesys', 'unreal', 'engine', 'оборудование', 'математический', 'adobe', 'firebase', 'prometheus', 'управленческий', 'умение', 'интегративный', 'windows', 'wms', 'электрический', 'mariadb', 'opencart', 'bpmn', 'обработка', 'photoshop', 'revit', 'rust', 'cocoapods', 'продажа', 'selenium', 'uml', 'сервер', 'архитектурный', 'обслуживание', 'perl', 'зарплата', 'выполнение', 'маркетплейс', 'solidworks', 'mdk', 'keil', 'веб', 'autocad', 'предприятие', 'конструкторский', 'visual', 'for', 'basic', 'applications', 'публичный', 'презентация', 'выступление', 'параллельный', 'youtrack', 'ibm', 'проектный', 'модель', 'saas', 'paas', 'iaas', 'rx', 'nx', 'directum', 'yocto', 'joomla', 'внимательность', 'бюджетирование', 'стрессоустойчивость', 'оргтехника', 'финанс', 'бит', 'ребенок', 'работать', 'platform', 'cloud', 'sense', 'qlik', 'принимать', 'отчетность', 'креативный', 'google', 'передача', 'excel', 'локальный', 'rspec', 'openstack', 'ide', 'blender', 'access', 'uipath', 'гаджет', 'бытовой', 'vr', 'эксплуатация', 'dax', 'terrasoft', 'статистический', 'абс', 'zabbix', 'studio', 'использование', 'цфт', 'компас', 'web', 'business', 'технология', 'доступ', 'powershell', 'olap', 'nifi', 'webdriver', 'iot', 'lua', 'woocommerce', 'terraform', 'realm', 'quartus', 'qemu', 'helm', 'altera', 'написание', 'парус', 'ax', 'онлайн', 'техника', 'альф', 'авто', 'arenadatadb', 'презентационный', 'область', 'материал', 'office', 'notes', 'lotus', 'kibana', 'intelligence', 'cassandra', 'kvm', 'db', 'банк', 'visio', 'dynamics', 'маршрутизация', 'haproxy', 'аналитика', 'тренинг', 'коучинг', 'ремонт', 'пользователь', 'creatio', 'enterprise', 'электронный', 'разведка', 'геологический', 'sphinx', 'opencl', 'labview', 'fastreport', 'coredata', 'avr', 'связь', 'plus', 'edition', 'производственный', 'текст', 'редактирование', 'инструмент', 'учебный', 'коммутатор', 'postman', 'инициативность', 'проектно', 'storage', 'simple', 'service', 'navisworks', 'material', 'dns', 'design', 'amazon', 'визуализация', 'бухгалтерия', 'уровень', 'сотовый', 'коммутационный', 'axelot', 'поддержка', 'sprutcam', 'solidcam', 'mockito', 'inventor', 'influxdb', 'fusion', 'buildroot', 'риск', 'научно', 'исследовательский', 'банковский', 'прибор', 'измерительный', 'oauth', 'налоговый', 'логистика', 'заказчик', 'взаимодействие', 'powerpoint', 'amocrm', 'сфера', 'графический', 'tilda', 'труд', 'страхование', 'оплата', 'электротехнический', 'сооружение', 'протокол', 'websphere', 'mq', 'самостоятельность', 'применение', 'акт', 'tableau', 'трафик', 'гис', 'биллинг', 'арбитраж', 'teradata', 'superset', 'project', 'чпу', 'станок', 'инжиниринг', 'directory', 'active', 'outlook', 'стать', 'sas', 'обратный', 'конвертация', 'webflow', 'tms', 'software', 'puppet', 'orcad', 'nats', 'messaging', 'mercurial', 'maple', 'eplan', 'drupal', 'фотография', 'фирма', 'ретушь', 'процентный', 'кредитный', 'здание', 'lms', 'транспортный', 'контроль', 'деятельность', 'задолженность', 'дебиторский', 'автомобиль', 'cognos', 'складской', 'договор', 'xbrl', 'wireshark', 'mdx', 'max', 'matplotlib', 'firebird', 'ds', 'asterisk', 'activemq', 'требование', 'сбор', 'преподавание', 'контент', 'дистрибуция', 'видео', 'sharepoint', 'low', 'code', 'составление', 'основа', 'мотивировать', 'маркетинг', 'клиентоориентированность', 'адаптировать', 'небольшой', 'грузовик', 'vertica', 'tarantool', 'esb', 'программа', 'логический', 'диаграмма', 'торговля', 'станция', 'автоматический', 'tm', 'suite', 'slack', 'elma', 'diasoft', 'sheets', 'analytics', 'опытно', 'легковой', 'видеозвонок', 'togaf', 'query', 'archimate', 'правовой', 'нормативно', 'документ', 'сбыт', 'канал', 'инженерный', 'изыскание', 'грузовой', 'автоматизация', 'itsm', 'illustrator', 'helpdesk', 'aris', 'транзакция', 'телевизионный', 'разметка', 'рабочий', 'проводной', 'моушн', 'место', 'кбр', 'ввод', 'арма', 'автоматизировать', 'virtualbox', 'spine', 'solid', 'simulink', 'servicedesk', 'sentry', 'remote', 'protocol', 'playwright', 'player', 'pipesim', 'ip', 'iac', 'flash', 'edge', 'desktop', 'cinema', 'телефонный', 'стратегия', 'продукция', 'позитивный', 'метод', 'биржа', 'экспедирование', 'услуга', 'планирование', 'новый', 'маркетинговый', 'кадровый', 'аудит', 'чистота', 'россия', 'порядок', 'поддержание', 'детский', 'афина', 'yarn', 'voip', 'vanessa', 'seaborn', 'openvpn', 'doors', 'canva', 'automation', 'ansys', 'docs', 'формат', 'строительный', 'ремонтный', 'психология', 'комплексный', 'коммуникативная', 'имитационный', 'директ', 'гарантийный', 'автотранспорт', 'wsdl', 'teamcenter', 'movie', 'mixpanel', 'mathcad', 'maker', 'flink', 'flex', 'asana', 'чертеж', 'naumen', 'finebi', 'er', 'эквайринг', 'сообщение', 'рассылка', 'банкинг', 'roistat', 'pivot', 'anaplan', 'яндекс', 'экономический', 'преподавать', 'конфликт', 'затрата', 'возражение', 'валютный', 'iiko', 'hr', 'эффективность', 'ценность', 'товарно', 'таргетированный', 'склад', 'рекламный', 'реклама', 'расчетно', 'операционный', 'методология', 'материальный', 'качество', 'idef', 'abc', 'хозяйственный', 'финансово', 'производство', 'оценка', 'операция', 'кассовый', 'рынок', 'word']</t>
+  </si>
+  <si>
+    <t>['управление', 'api', 'sql', 'bpmn', 'анализ', 'uml', 'разработка', 'системный', 'проект', 'работа', 'технический', 'формирование', 'задание', 'система', 'javascript', 'принцип', 'знание', 'данные', 'sap', 'базовый', 'база', 'лидерство', 'персонал', 'мышление', 'бизнес', 'microsoft', 'процесс', 'bi', 'apache', 'confluence', 'грамотность', 'аналитический', 'организация', 'kafka', 'информационный', 'server', 'postgresql', 'документация', 'erp', 'rabbitmq', 'сценарий', 'пользовательский', 'ведение', 'swagger', 'dwh', 'postman', 'чтение', 'python', 'обеспечение', 'oracle', 'database', 'применение', 'коммуникативный', 'продукт', 'scala', 'kotlin', 'java', 'hadoop', 'интегративный', 'методология', 'idef', 'etl', 'требование', 'сбор', 'git', 'visio', 'проектный', 'оптимизация', 'тестирование', 'qa', 'учет', 'безопасность', 'язык', 'английский', 'команда', 'решение', 'ux', 'ui', 'программный', 'научно', 'исследовательский', 'абс', 'mongodb', 'цфт', 'архитектурный', 'отчетность', 'нормативный', 'администрирование', 'дизайн', 'диаграмма', 'camunda', 'devops', 'банк', 'клиент', 'программирование', 'er', 'бухгалтерский', 'финансовый', 'esb', 'crm', 'ориентированный', 'dynamics', 'linux', 'archimate', 'airflow', 'unix', 'figma', 'правовой', 'нормативно', 'документ', 'объектно', 'документооборот', 'html', 'css', 'soapui', 'модель', 'аналитика', 'clickhouse', 'битрикс', 'проектирование', 'teradata', 'управленческий', 'net', 'инструментальный', 'бюджетирование', 'excel', 'mysql', 'youtrack', 'togaf', 'проведение', 'многозадачность', 'веб', 'php', 'front', 'end', 'kibana', 'организаторский', 'навык', 'yaml', 'продажа', 'консультирование', 'построение', 'nav', 'сеть', 'ax', 'spark', 'обучаемость', 'адаптивность', 'маркетплейс', 'saas', 'paas', 'iaas', 'налоговый', 'office', 'nosql', 'docker', 'aris', 'риск', 'компьютерный', 'банковский', 'логистика', 'заказчик', 'взаимодействие', 'финанс', 'бит', 'sas', 'оборудование', 'kubernetes', 'сервер', 'scada', 'уровень', 'коммутационный', 'обучение', 'машинный', 'создание', 'использование', 'powerpoint', 'передача', 'умение', 'самоорганизованность', 'визуализация', 'биржа', 'wms', 'принимать', 'презентационный', 'материал', 'мобильный', 'visual', 'redis', 'for', 'basic', 'applications', 'путь', 'карта', 'elasticsearch', 'cjm', 'локальный', 'itsm', 'creatio', 'сапр', 'cad', 'транспортный', 'область', 'внимательность', 'project', 'power', 'сппр', 'принятие', 'метод', 'инструмент', 'elma', 'diasoft', 'low', 'code', 'тренинг', 'статистический', 'поддержка', 'пк', 'обработка', 'коучинг', 'hbase', 'экспедирование', 'настройка', 'автоматизированный', 'safe', 'гис', 'transact', 'ibm', 'акт', 'целеустремленность', 'составление', 'работоспособность', 'сфера', 'автоматизация', 'helpdesk', 'диаграммами', 'dfd', 'операция', 'websphere', 'websocket', 'schema', 'mq', 'json', 'приложение', 'целевой', 'предложение', 'коммерческий', 'аудитория', 'terrasoft', 'enterprise', 'arenadatadb', 'инжиниринг', 'wsdl', 'ruby', 'oauth', 'dbeaver', 'db', 'моделирование', 'сетевой', 'пользователь', 'подготовка', 'инвестиционный', 'zabbix', 'windows', 'hr', 'иса', 'rp', 'nanocad', 'axure', 'avaya', 'станция', 'автоматический', 'powershell', 'nifi', 'cassandra', 'axelot', 'architect', 'публичный', 'презентация', 'выступление', 'web', 'golang', 'ценообразование', 'учреждение', 'протокол', 'мединский', 'маршрутизация', 'галактика', 'smartvista', 'rust', 'activemq', 'преподавание', 'валютный', 'sharepoint', 'grafana', 'blockchain', 'word', 'google', 'docs', 'комплексный', 'vr', 'pdm', 'lims', 'телефонный', 'монтаж', 'математический', 'бухгалтерия', 'sense', 'qlik', 'эксплуатация', 'торговля', 'тмц', 'сохранность', 'конструктор', 'доступ', 'naumen', 'цифровой', 'услуга', 'страхование', 'актив', 'эквайринг', 'компас', 'банкинг', 'superset', 'prometheus', 'business', 'android', 'anaplan', 'проактивность', 'ответственность', 'экономический', 'финансы', 'конструкторский', 'инженерный', 'изыскание', 'внешнеэкономический', 'ios', 'радиорелейный', 'проверка', 'инспекционный', 'selenide', 'libreoffice', 'egar', 'banking', 'allure', 'таргетированный', 'стратегия', 'реклама', 'расчетно', 'парус', 'операционный', 'autocad', 'abc', 'производство', 'маркетинговый', 'кассовый', 'кадровый', 'интервью', 'релейный', 'защита', 'витрина', 'афина', 'автоматика', 'yarn', 'xbrl', 'way', 'planning', 'openvpn', 'haproxy', 'asterisk', 'сайт', 'обслуживание', 'маркетинг', 'инициативность', 'деятельность', 'чпу', 'станок', 'маркировка', 'tarantool', 'kvm', 'iot', 'flink', 'экспертиза', 'технология', 'структура', 'прохождение', 'организационный', 'егаис', 'unity', 'tm', 'suite', 'трафик', 'метрика', 'коммутатор', 'биллинг', 'арбитраж', 'roistat', 'red', 'hat', 'cognos', 'яндекс', 'юридический', 'учебный', 'лицо', 'видео', 'studio', 'эффективность', 'склад', 'рекламный', 'задолженность', 'дебиторский', 'tableau', 'оценка', 'оргтехника', 'новый', 'кредитование', 'аудит', 'analytics', 'access', 'рынок', 'производственный', 'основа', 'написание', 'мотивировать', 'креативный', 'контроль', 'клиентоориентированность', 'выполнение', 'адаптировать', 'amocrm']</t>
+  </si>
+  <si>
+    <t>['ведение', 'финансовый', 'отчетность', 'анализ', 'управление', 'бюджетирование', 'учет', 'грамотность', 'управленческий', 'финансы', 'microsoft', 'бухгалтерский', 'коммуникативный', 'знание', 'продажа', 'работа', 'excel', 'информационный', 'мышление', 'аналитический', 'документооборот', 'хозяйственный', 'финансово', 'деятельность', 'экономический', 'клиент', 'язык', 'базовый', 'английский', 'инвестиционный', 'процесс', 'бизнес', 'налоговый', 'проведение', 'риск', 'финансирование', 'аудит', 'сфера', 'организация', 'команда', 'локальный', 'акт', 'операция', 'многозадачность', 'затрата', 'разработка', 'нормативный', 'привлечение', 'поиск', 'пк', 'данные', 'powerpoint', 'задолженность', 'дебиторский', 'кредитование', 'проект', 'bi', 'проектный', 'персонал', 'новый', 'договор', 'лидерство', 'инструментальный', 'ценообразование', 'составление', 'банк', 'google', 'office', 'навык', 'консультирование', 'валютный', 'организаторский', 'обучаемость', 'адаптивность', 'outlook', 'клиентоориентированность', 'поставщик', 'erp', 'моделирование', 'публичный', 'презентация', 'выступление', 'база', 'проактивность', 'ответственность', 'оптимизация', 'целеустремленность', 'работоспособность', 'sap', 'банковский', 'обслуживание', 'система', 'docs', 'создание', 'производственный', 'презентационный', 'материал', 'биллинг', 'sheets', 'самоорганизованность', 'диаграмма', 'uml', 'технический', 'лизинг', 'контроль', 'выполнение', 'планирование', 'внешнеэкономический', 'кассовый', 'внимательность', 'обеспечение', 'правовой', 'power', 'sql', 'стандарт', 'международный', 'страхование', 'продукт', 'системный', 'интегративный', 'юридический', 'лицо', 'нормативно', 'документ', 'гарантия', 'swot', 'pest', 'логистика', 'труд', 'оплата', 'статистический', 'обработка', 'услуга', 'оценка', 'маркетплейс', 'эффективность', 'рекламный', 'инструмент', 'умение', 'программный', 'тренинг', 'область', 'коучинг', 'взаимодействие', 'самостоятельность', 'стрессоустойчивость', 'операционный', 'инвентаризация', 'расчетно', 'научно', 'исследовательский', 'написание', 'инициативность', 'битрикс', 'позитивный', 'подбор', 'access', 'заказчик', 'решение', 'принимать', 'word', 'сценарий', 'предприятие', 'пользовательский', 'возражение', 'креативный', 'безопасность', 'server', 'логический', 'финанс', 'потребитель', 'бит', 'query', 'crm', 'oracle', 'database', 'орган', 'контролировать', 'стать', 'quickbooks', 'текст', 'редактирование', 'инвестор', 'государственный', 'недвижимость', 'поддержка', 'использование', 'visual', 'for', 'basic', 'applications', 'товар', 'заказ', 'смета', 'гранд', 'среда', 'конкурентный', 'автомобиль', 'abc', 'прием', 'доставка', 'рынок', 'мотивировать', 'адаптировать', 'корпоративный', 'оргтехника', 'маркетинговый', 'социальный', 'мобильный', 'счет', 'ностро', 'лоро', 'книга', 'русский', 'автокредитование', 'документация', 'project', 'стратегия', 'сеть', 'продвижение', 'ипотечный', 'жилой', 'pivot', 'экспедирование', 'складской', 'кадровый', 'автоматизированный', 'рыночный', 'риска', 'грузовой', 'nav', 'транспортный', 'небольшой', 'грузовик', 'аренда', 'keeper', 'закупка', 'экспертиза', 'стоимость', 'прохождение', 'контурэкстерна', 'имущество', 'dynamics', 'api', 'легковой', 'amocrm', 'исследование', 'ассортимент', 'ios', 'хирургия', 'польский', 'малоэтажный', 'гостиница', 'взрослый', 'ценность', 'товарно', 'телефонный', 'приложение', 'материальный', 'tableau', 'спарк', 'помещение', 'интерфакс', 'storehouse', 'quik', 'mindbox', 'формирование', 'задание', 'net', 'хозяйство', 'строительство', 'немецкий', 'qwery', 'уровень', 'тмц', 'сохранность', 'процентный', 'кредитный', 'коммутационный', 'здание', 'diasoft', 'эквайринг', 'сообщение', 'сметный', 'рассылка', 'предложение', 'передача', 'критический', 'коммерческий', 'испанский', 'внутренний', 'внедрение', 'бренд', 'wordpress', 'kpi', 'сбыт', 'ремонт', 'подготовка', 'конфликт', 'контент', 'канал', 'дистрибуция', 'автоматизация', 'абс', 'таргетированный', 'реклама', 'продукция', 'принцип', 'парус', 'оборудование', 'математический', 'бухгалтерия', 'биржа', 'sense', 'qlik', 'python', 'цифровой', 'поисковый', 'настройка', 'компьютерный', 'интервью', 'актив', 'visio', 'seo', 'postgresql', 'confluence', 'analytics', 'чтение', 'сайт', 'основа', 'маркетинг', 'html', 'css']</t>
   </si>
 </sst>
 </file>

--- a/RPD_output/dataset_res3.xlsx
+++ b/RPD_output/dataset_res3.xlsx
@@ -79,31 +79,31 @@
     <t>разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,анализ финансово-хозяйственный деятельность аудит обучаемость адаптивность целеустремленность работоспособность,microsoft excel,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,ведение финансовый отчетность oracle database разработка пользовательский сценарий знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность,коммуникативный грамотность ведение документооборот знание область логистика составление договор microsoft office,коммуникативный грамотность коммуникативный грамотность информационный грамотность информационный грамотность информационный грамотность ведение отчетность,microsoft excel microsoft powerpoint sap финансовый анализ,работа erp-система лизинг ведение бухгалтерский учет финансовый анализ,с бит финанс microsoft excel microsoft office ведение управленческий отчетность,ведение финансовый отчетность,разработка bi анализ финансово-хозяйственный деятельность работа дебиторский задолженность моделирование риск управление риск организация управление бизнес-процесс управление риск управление финансы ведение финансовый отчетность финансовый анализ бюджетирование ведение управленческий отчетность экономический анализ,ведение финансовый отчетность проектный финансирование информационный грамотность управление финансы ведение управленческий отчетность лидерство управление персонал ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,знание английский язык ведение документооборот ведение финансовый отчетность финансовый анализ экономический анализ,финансовый анализ аналитический мышление ведение бухгалтерский учет ведение отчетность информационный грамотность ведение управленческий отчетность ведение финансовый отчетность управление финансы,составление договор клиентоориентированность анализ потребитель поиск привлечение новый клиент продажа,финансовый анализ ведение управленческий отчетность ведение управленческий учет финансовый анализ,microsoft powerpoint анализ инвестиционный проект анализ финансово-хозяйственный деятельность научно-исследовательский работа проведение инвестиционный операция проектный финансирование оптимизация бизнес-процесс организация управление бизнес-процесс финансовый анализ,ведение финансовый отчетность ведение бухгалтерский учет ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,работа поставщик финансовый анализ налоговый учет ведение финансовый отчетность,выполнение производственный технический контроль ведение финансовый отчетность оптимизация бизнес-процесс организация управление бизнес-процесс,продажа клиентоориентированность продажа продажа продажа,microsoft excel знание английский язык ведение финансовый отчетность ведение управленческий отчетность,продажа коммуникативный грамотность продажа поиск привлечение новый клиент,microsoft excel ведение бухгалтерский учет налоговый учет налоговый учет ведение управленческий отчетность ведение финансовый отчетность управление финансы,базовый инструментальный грамотность коммуникативный грамотность консультирование ведение клиент базовый знание пк,microsoft excel экономический анализ,продажа публичный выступление проведение презентация продажа работа возражение поиск привлечение новый клиент продажа продажа работа команда продажа,продажа поиск привлечение новый клиент публичный выступление проведение презентация,продажа продажа публичный выступление проведение презентация поиск привлечение новый клиент,коучинг проведение тренинг организаторский навык подбор персонал лидерство управление персонал продажа управление планирование продажа,знание английский язык ведение бухгалтерский учет проведение валютный операция коммуникативный грамотность ведение документооборот ведение управленческий отчетность,microsoft excel аналитический мышление бюджетирование бюджетирование многозадачность ведение управленческий отчетность целеустремленность работоспособность ведение финансовый отчетность финансовый анализ управление финансы экономический анализ,клиентоориентированность продажа прием обслуживание клиент поиск привлечение новый клиент многозадачность работа команда,анализ инвестиционный проект проектный финансирование бюджетирование управление финансы финансовый анализ бюджетирование,google docs аналитический мышление бюджетирование базовый инструментальный грамотность коммуникативный грамотность коммуникативный грамотность лидерство обучаемость адаптивность клиентоориентированность целеустремленность работоспособность работа команда стрессоустойчивость системный интегративный мышление самоорганизованность умение принимать решение самоорганизованность ведение управленческий отчетность финансовый анализ управление финансы,ведение финансовый отчетность финансовый анализ бюджетирование проведение инвестиционный операция налоговый учет бюджетирование информационный грамотность управление риск ведение управленческий отчетность бюджетирование,ведение управленческий отчетность налоговый учет целеустремленность работоспособность экономический анализ,продажа поиск привлечение новый клиент публичный выступление проведение презентация,целеустремленность работоспособность базовый знание пк работа команда знание область логистика экспедирование транспортный логистика,знание английский язык ведение документооборот создание презентационный материал ведение финансовый отчетность,разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,коммуникативный грамотность управление затрата ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность,инициативность коммуникативный грамотность внимательность,ведение финансовый отчетность ведение управленческий учет ведение финансовый отчетность,разработка программный обеспечение microsoft office microsoft outlook продажа продажа продажа,анализ финансово-хозяйственный деятельность бюджетирование проведение инвестиционный операция ведение управленческий учет финансовый анализ управление финансы,финансовый анализ,анализ финансово-хозяйственный деятельность финансовый анализ ведение бухгалтерский учет бюджетирование проектный финансирование бюджетирование управление финансы ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,microsoft excel бюджетирование бюджетирование финансовый анализ,коммуникативный грамотность клиентоориентированность консультирование ведение клиент базовый знание пк,продажа базовый инструментальный грамотность клиентоориентированность продажа,обучаемость адаптивность продажа коммуникативный грамотность,бюджетирование взаимодействие государственный контролировать орган аудит организаторский навык лидерство управление персонал ведение управленческий отчетность,ведение финансовый отчетность знание английский язык аудит аудит ведение финансовый отчетность ведение финансовый отчетность,выполнение производственный технический контроль работа дебиторский задолженность ведение финансовый отчетность управление финансы,ведение бухгалтерский учет,microsoft excel управление база данные управление база данные ведение документооборот,информационный грамотность работа uml-диаграмма управление финансы,бюджетирование,microsoft excel microsoft powerpoint знание английский язык анализ ценообразование экономический анализ,аналитический мышление анализ инвестиционный проект бюджетирование ведение финансовый отчетность финансовый анализ,финансовый анализ бюджетирование информационный грамотность финансовый анализ,бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ бюджетирование,аналитический мышление знание английский язык внешнеэкономический деятельность коммуникативный грамотность клиентоориентированность многозадачность информационный грамотность проведение валютный операция,google docs microsoft excel ведение бухгалтерский учет налоговый учет ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,бюджетирование ведение финансовый отчетность финансовый анализ,бюджетирование анализ ценообразование управление затрата ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет,клиентоориентированность,клиентоориентированность,организация управление бизнес-процесс бюджетирование бюджетирование проведение инвестиционный операция налоговый учет управление проект ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование анализ ценообразование управление затрата ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,абс diasoft microsoft office аналитический мышление знание английский язык коммуникативный грамотность информационный грамотность,управление финансы,управление финансы управление финансы экономический анализ,анализ финансово-хозяйственный деятельность бюджетирование системный интегративный мышление ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет управление финансы,ведение финансовый отчетность финансовый анализ ведение бухгалтерский учет ведение бухгалтерский учет знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность проектный финансирование ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность управление финансы,продажа продажа обучаемость адаптивность целеустремленность работоспособность продажа,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,анализ инвестиционный проект финансовый анализ финансовый анализ,аналитический мышление работа дебиторский задолженность ведение документооборот лизинг лизинг составление договор,microsoft excel финансовый анализ коммуникативный грамотность ведение отчетность информационный грамотность креативный мышление информационный грамотность системный интегративный мышление коммуникативный грамотность умение принимать решение,информационный грамотность управление финансы ведение финансовый отчетность финансовый анализ экономический анализ,знание английский язык ведение финансовый отчетность финансовый анализ управление финансы,работа uml-диаграмма,microsoft sql server анализ данные аналитический мышление знание английский язык информационный грамотность,коммуникативный грамотность ведение документооборот ведение бухгалтерский учет управление база данные ведение документооборот,microsoft outlook microsoft powerpoint работа автоматизированный система управление работа автоматизированный система управление коммуникативный грамотность ведение документооборот,microsoft excel microsoft power bi power query,базовый знание пк microsoft excel проектный финансирование анализ ценообразование ведение финансовый отчетность финансовый анализ,microsoft excel microsoft office бюджетирование финансовый анализ,организаторский навык многозадачность стрессоустойчивость коммуникативный грамотность,финансовый анализ аналитический мышление бюджетирование бюджетирование информационный грамотность ведение отчетность ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование ведение управленческий отчетность финансовый анализ управление финансы,знание нормативно-правовой документ клиент-банк работа банковский гарантия бюджетирование проведение валютный операция ведение бухгалтерский учет ведение управленческий отчетность управление финансы ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность ведение финансовый отчетность,работа erp-система аудит аудит аудит выполнение производственный технический контроль аудит,microsoft excel microsoft powerpoint microsoft word анализ финансово-хозяйственный деятельность ведение отчетность базовый знание пк работа команда информационный грамотность ведение финансовый отчетность финансовый анализ экономический анализ,с microsoft excel,power query финансовый анализ аналитический мышление microsoft excel многозадачность информационный грамотность ведение управленческий отчетность ведение управленческий учет экономический анализ,финансовый анализ бюджетирование бюджетирование ведение финансовый отчетность бюджетирование,бюджетирование,microsoft excel клиент-банк бюджетирование обслуживание клиент банк ведение управленческий отчетность анализ ценообразование ведение управленческий отчетность ведение управленческий учет финансовый анализ управление финансы,анализ финансово-хозяйственный деятельность многозадачность базовый знание пк многозадачность работа поставщик информационный грамотность умение принимать решение,коммуникативный грамотность ведение документооборот знание область логистика составление договор microsoft office,аналитический мышление бюджетирование ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,ответственность проактивность креативный мышление,взаимодействие государственный контролировать орган ведение финансовый отчетность коммуникативный грамотность ведение кадровый учет налоговый учет налоговый учет налоговый учет ответственность проактивность ведение бухгалтерский учет организация оплата труд налоговый учет знание область логистика экспедирование транспортный логистика ведение финансовый отчетность,организаторский навык бюджетирование ведение финансовый отчетность бюджетирование,ведение бухгалтерский учет бюджетирование ведение документооборот управление финансы,финансовый анализ знание английский язык коммуникативный грамотность коммуникативный грамотность продажа системный интегративный мышление лидерство управление персонал консультирование ведение клиент продажа,с erp аналитический мышление бюджетирование взаимодействие государственный контролировать орган ведение управленческий учет,коммуникативный грамотность ведение управленческий отчетность ведение финансовый отчетность финансовый анализ финансовый анализ,продажа коммуникативный грамотность коммуникативный грамотность продажа,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,ведение документооборот ведение документооборот работа команда информационный грамотность системный интегративный мышление умение принимать решение,abc-анализ abc-анализ анализ финансово-хозяйственный деятельность анализ ценообразование анализ ценообразование аналитический мышление бюджетирование ведение отчетность управление затрата ведение финансовый отчетность финансовый анализ,бюджетирование стрессоустойчивость ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,google docs финансовый анализ ведение управленческий отчетность ведение финансовый отчетность,финансовый анализ разработка bi бюджетирование бюджетирование бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность управление финансы,microsoft excel visual basic for applications microsoft office финансовый анализ,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность,аналитический мышление бюджетирование бюджетирование ведение управленческий отчетность финансовый анализ,microsoft excel microsoft powerpoint финансовый анализ бюджетирование коммуникативный грамотность кредитование,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,sap работа erp-система sap ведение финансовый отчетность microsoft office ведение управленческий отчетность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,моделирование риск управление риск финансовый анализ анализ финансово-хозяйственный деятельность ведение документооборот проектный финансирование кредитование финансовый анализ экономический анализ,анализ финансово-хозяйственный деятельность финансовый анализ бюджетирование информационный грамотность лидерство управление персонал ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,microsoft excel quickbooks ведение бухгалтерский учет знание английский язык логический мышление ведение отчетность,знание английский язык ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,финансовый анализ ведение финансовый отчетность финансовый анализ аналитический мышление ведение финансовый отчетность ведение управленческий отчетность,аналитический мышление бюджетирование бюджетирование ведение финансовый отчетность,microsoft excel microsoft visio управленческий консультирование коммуникативный грамотность оптимизация бизнес-процесс организация управление бизнес-процесс организаторский навык создание презентационный материал публичный выступление проведение презентация,бюджетирование работа маркетплейс ведение управленческий отчетность,microsoft excel ведение управленческий отчетность финансовый анализ управление финансы,финансовый анализ ведение финансовый отчетность финансовый анализ ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет,консультирование ведение клиент многозадачность работа команда управление база данные финансовый анализ,финансовый анализ лидерство управление персонал ведение управленческий учет ведение финансовый отчетность ведение управленческий отчетность,microsoft excel microsoft outlook анализ данные аналитический мышление базовый инструментальный грамотность базовый инструментальный грамотность многозадачность ведение документооборот информационный грамотность,работа поставщик ведение управленческий учет,продажа управление планирование продажа поиск привлечение новый клиент работа команда продажа,ведение бухгалтерский учет бюджетирование ведение финансовый отчетность microsoft powerpoint ведение финансовый отчетность бюджетирование знание международный стандарт финансовый отчетность ведение финансовый отчетность информационный грамотность ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,анализ финансово-хозяйственный деятельность финансовый анализ аналитический мышление знание английский язык бюджетирование бюджетирование ведение бухгалтерский учет ведение финансовый отчетность бюджетирование ведение финансовый отчетность бюджетирование знание локальный нормативный акт сфера бухгалтерский учет ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,финансовый анализ аналитический мышление бюджетирование информационный грамотность лидерство управление персонал управление финансы ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность финансовый анализ,финансовый анализ клиент-банк ведение бухгалтерский учет организация оплата труд составление договор ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,google docs аналитический мышление ведение бухгалтерский учет ведение документооборот ведение отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет бюджетирование ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы,бюджетирование кредитование проектный финансирование управление риск,microsoft excel microsoft word внимательность базовый инструментальный грамотность базовый знание пк ведение документооборот,ведение финансовый отчетность финансовый анализ ведение управленческий учет ведение финансовый отчетность,анализ финансово-хозяйственный деятельность аналитический мышление ведение бухгалтерский учет ведение управленческий учет ведение финансовый отчетность управление финансы,бюджетирование управление затрата ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет ведение финансовый отчетность финансовый анализ управление финансы,ведение бухгалтерский учет ведение финансовый отчетность финансовый анализ управление финансы,microsoft excel,коммуникативный грамотность коммуникативный грамотность многозадачность информационный грамотность финансовый анализ,финансовый анализ аналитический мышление бюджетирование ведение бухгалтерский учет бюджетирование анализ ценообразование разработка bi ведение финансовый отчетность моделирование риск управление риск управление риск управление финансы ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность анализ ценообразование,продажа кредитование кредитование продажа продажа страхование продажа,microsoft outlook коммуникативный грамотность коммуникативный грамотность ведение документооборот составление договор бюджетирование ведение бухгалтерский учет ведение документооборот ведение документооборот ведение отчетность информационный грамотность составление договор составление договор,финансовый анализ финансовый анализ анализ инвестиционный проект лидерство управление персонал разработка bi ведение финансовый отчетность финансовый анализ знание английский язык аудит бюджетирование ведение финансовый отчетность информационный грамотность финансовый анализ,microsoft excel ведение отчетность ведение управленческий отчетность финансовый анализ,финансовый анализ бюджетирование бюджетирование работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,финансовый анализ бюджетирование бюджетирование работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы ведение управленческий отчетность экономический анализ,microsoft excel microsoft word коммуникативный грамотность ведение документооборот,базовый инструментальный грамотность базовый инструментальный грамотность многозадачность работа команда,microsoft office аналитический мышление бюджетирование управление затрата ведение управленческий отчетность управление финансы,microsoft office аналитический мышление бюджетирование управление затрата ведение управленческий отчетность управление финансы,клиент-банк ведение бухгалтерский учет ведение бухгалтерский учет контурэкстерна налоговый учет ведение документооборот,финансовый анализ бюджетирование бюджетирование ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,финансовый анализ аналитический мышление коммуникативный грамотность информационный грамотность ведение финансовый отчетность,финансовый анализ ведение отчетность ведение управленческий отчетность ведение финансовый отчетность управление финансы,microsoft excel финансовый анализ работа дебиторский задолженность ведение отчетность финансовый анализ экономический анализ,microsoft power bi ведение бухгалтерский учет бюджетирование лидерство управление персонал ведение управленческий учет управление финансы,продажа продажа коммуникативный грамотность коммуникативный грамотность коммуникативный грамотность публичный выступление проведение презентация продажа поиск привлечение новый клиент продажа страхование продажа продажа,анализ финансово-хозяйственный деятельность знание английский язык бюджетирование управление риск управление финансы бюджетирование ведение управленческий отчетность,google sheets microsoft excel,microsoft excel работа поставщик анализ данные коммуникативный грамотность многозадачность работа команда информационный грамотность ведение управленческий отчетность управление финансы,с знание нормативно-правовой документ,управление продукт управление проект работа система управление проект confluence работа система управление проект знание английский язык управление проект,ведение бухгалтерский учет кредитование информационный грамотность,проведение инвестиционный операция инициативность проектный финансирование многозадачность ответственность проактивность финансовый анализ проектный финансирование самоорганизованность финансовый анализ управление финансы,ведение управленческий отчетность финансовый анализ ведение финансовый отчетность финансовый анализ,коучинг проведение тренинг организаторский навык подбор персонал поиск привлечение новый клиент лидерство управление персонал продажа управление планирование продажа,финансовый анализ разработка bi консультирование ведение клиент работа команда ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность финансовый анализ,ведение бухгалтерский учет,power query финансовый анализ ведение управленческий отчетность ведение финансовый отчетность,microsoft excel microsoft sql server знание английский язык финансовый анализ,анализ финансово-хозяйственный деятельность аналитический мышление ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,анализ финансово-хозяйственный деятельность финансовый анализ работа жилой недвижимость финансовый анализ управление финансы ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы,microsoft excel ведение финансовый отчетность знание локальный нормативный акт сфера бухгалтерский учет,ведение управленческий учет,microsoft excel бюджетирование,анализ финансово-хозяйственный деятельность финансовый анализ ведение бухгалтерский учет ведение финансовый отчетность информационный грамотность управление финансы ведение управленческий учет бюджетирование экономический анализ,с microsoft powerpoint анализ ценообразование бюджетирование ведение отчетность многозадачность составление договор,аналитический мышление бюджетирование бюджетирование ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность финансовый анализ финансовый анализ экономический анализ,цифровой компьютерный грамотность базовый инструментальный грамотность клиентоориентированность,ведение бухгалтерский учет проектный финансирование кредитование кредитование юридический лицо многозадачность проектный финансирование работа команда ведение финансовый отчетность ведение финансовый отчетность экономический анализ,microsoft excel ведение бухгалтерский учет ведение документооборот ведение управленческий учет,ведение управленческий отчетность ведение финансовый отчетность финансовый анализ экономический анализ,ведение бухгалтерский учет,ведение бухгалтерский учет бюджетирование ведение финансовый отчетность информационный грамотность ведение управленческий отчетность финансовый анализ ведение финансовый отчетность финансовый анализ бюджетирование,аналитический мышление инициативность самостоятельность,анализ финансово-хозяйственный деятельность финансовый анализ банковский кассовый операция финансовый анализ,продажа продажа коммуникативный грамотность коммуникативный грамотность поиск привлечение новый клиент коммуникативный грамотность продажа,microsoft office microsoft outlook аналитический мышление ведение бухгалтерский учет налоговый учет управление база данные управление затрата ведение финансовый отчетность ведение финансовый отчетность управление финансы,коммуникативный грамотность ведение документооборот ведение документооборот информационный грамотность составление договор,коммуникативный грамотность организаторский навык поиск привлечение новый клиент коммуникативный грамотность финансовый анализ,продажа продажа публичный выступление проведение презентация поиск привлечение новый клиент,аналитический мышление коммуникативный грамотность ведение документооборот управление затрата ведение управленческий отчетность ведение финансовый отчетность ведение финансовый отчетность экономический анализ,microsoft powerpoint создание презентационный материал ведение финансовый отчетность финансовый анализ,ведение финансовый отчетность ведение управленческий отчетность,продажа коммуникативный грамотность клиентоориентированность коммуникативный грамотность консультирование ведение клиент консультирование ведение клиент продажа ответственность проактивность поиск привлечение новый клиент базовый знание пк кредитование продажа коммуникативный грамотность,знание английский язык клиентоориентированность консультирование ведение клиент умение мотивировать адаптировать персонал многозадачность,базовый инструментальный грамотность консультирование ведение клиент базовый знание пк работа команда,клиент-банк продажа банковский продукт услуга коммуникативный грамотность управление база данные информационный грамотность ведение документооборот,коммуникативный грамотность коммуникативный грамотность поиск привлечение новый клиент публичный выступление проведение презентация коммуникативный грамотность,microsoft excel ведение документооборот ведение отчетность ведение финансовый отчетность,разработка с биллинг ведение финансовый отчетность ведение финансовый отчетность анализ финансово-хозяйственный деятельность ведение финансовый отчетность ведение управленческий отчетность ведение финансовый отчетность финансовый анализ,экономический анализ,банковский кассовый операция ведение бухгалтерский учет ведение документооборот,microsoft excel знание английский язык бюджетирование ведение управленческий отчетность,анализ финансово-хозяйственный деятельность анализ финансово-хозяйственный деятельность бюджетирование проведение валютный операция бюджетирование работа дебиторский задолженность бюджетирование бюджетирование организация управление бизнес-процесс управление финансы ведение финансовый отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование,информационный грамотность составление договор ведение документооборот,коммуникативный грамотность коммуникативный грамотность ведение документооборот ведение документооборот,продажа microsoft office анализ инвестиционный проект финансовый анализ анализ инвестиционный проект коммуникативный грамотность,microsoft excel работа поставщик ведение финансовый отчетность,с erp финансовый анализ бюджетирование управление финансы ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность,бюджетирование бюджетирование многозадачность работа команда финансовый анализ управление финансы,финансовый анализ microsoft excel ведение финансовый отчетность анализ финансово-хозяйственный деятельность финансовый анализ бюджетирование бюджетирование управление финансы ведение управленческий отчетность ведение финансовый отчетность финансовый анализ управление финансы бюджетирование ведение управленческий отчетность,microsoft excel sap создание презентационный материал,google docs google sheets коммуникативный грамотность базовый знание пк,аналитический мышление информационный грамотность ведение управленческий учет ведение финансовый отчетность финансовый анализ ведение управленческий отчетность,аналитический мышление ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность ведение финансовый отчетность,продажа кредитование кредитование продажа продажа страхование продажа,организаторский навык ведение финансовый отчетность ведение финансовый отчетность финансовый анализ,бюджетирование ведение управленческий отчетность финансовый анализ управление финансы,финансовый анализ ведение бухгалтерский учет ведение бухгалтерский учет ведение бухгалтерский учет ведение финансовый отчетность налоговый учет информационный грамотность знание локальный нормативный акт сфера бухгалтерский учет ведение финансовый отчетность ведение управленческий отчетность ведение управленческий учет ведение финансовый отчетность ведение финансовый отчетность ведение управленческий отчетность,финансовый анализ бюджетирование кредитование финансовый анализ управление финансы,microsoft excel анализ данные анализ финансово-хозяйственный деятельность финансовый анализ ведение управленческий отчетность ведение бухгалтерский учет ведение управленческий отчетность microsoft excel информационный грамотность ста</t>
   </si>
   <si>
-    <t>['анализ', 'microsoft', 'управление', 'данные', 'финансовый', 'sql', 'грамотность', 'проведение', 'bi', 'мышление', 'знание', 'ведение', 'разработка', 'работа', 'аналитический', 'маркетинговый', 'python', 'исследование', 'отчетность', 'инвестиционный', 'продажа', 'информационный', 'power', 'проект', 'excel', 'область', 'маркетинг', 'основа', 'коммуникативный', 'рынок', 'база', 'бюджетирование', 'стратегия', 'научно', 'исследовательский', 'powerpoint', 'среда', 'конкурентный', 'процесс', 'бизнес', 'язык', 'английский', 'управленческий', 'организация', 'маркетплейс', 'server', 'персонал', 'лидерство', 'хозяйственный', 'финансово', 'бренд', 'создание', 'риск', 'ценообразование', 'оптимизация', 'деятельность', 'обработка', 'учет', 'статистический', 'презентационный', 'материал', 'google', 'tableau', 'apache', 'экономический', 'система', 'продукт', 'тестирование', 'поисковый', 'seo', 'навык', 'сайт', 'публичный', 'презентация', 'выступление', 'базовый', 'финансирование', 'postgresql', 'продвижение', 'операция', 'финансы', 'ассортимент', 'etl', 'моделирование', 'организаторский', 'системный', 'технический', 'бухгалтерский', 'команда', 'analytics', 'sap', 'clickhouse', 'социальный', 'проектный', 'сеть', 'визуализация', 'клиент', 'рекламный', 'веб', 'многозадачность', 'аналитика', 'оценка', 'query', 'dwh', 'инструментальный', 'формирование', 'задание', 'обучаемость', 'адаптивность', 'математический', 'bpmn', 'аудит', 'superset', 'oracle', 'написание', 'текст', 'редактирование', 'api', 'erp', 'database', 'контроль', 'abc', 'airflow', 'visual', 'for', 'basic', 'applications', 'документооборот', 'планирование', 'таргетированный', 'реклама', 'проактивность', 'ответственность', 'настройка', 'медиапланирование', 'интегративный', 'инструмент', 'office', 'кампания', 'crm', 'эффективность', 'кредитование', 'hadoop', 'целеустремленность', 'работоспособность', 'swot', 'pest', 'обучение', 'машинный', 'креативный', 'uml', 'сфера', 'нормативный', 'внимательность', 'локальный', 'пк', 'промо', 'акция', 'стоимость', 'имущество', 'акт', 'самоорганизованность', 'dax', 'умение', 'привлечение', 'поиск', 'spark', 'консультирование', 'sheets', 'закупка', 'manager', 'adwords', 'решение', 'контент', 'дистрибуция', 'adobe', 'инвестор', 'access', 'принимать', 'sense', 'qlik', 'сбыт', 'канал', 'новый', 'документация', 'bigquery', 'docs', 'tag', 'git', 'intelligence', 'составление', 'html', 'css', 'продукция', 'дизайн', 'производственный', 'business', 'битрикс', 'amplitude', 'налоговый', 'photoshop', 'потребитель', 'confluence', 'логистика', 'pivot', 'ibm', 'javascript', 'выполнение', 'outlook', 'appsflyer', 'путь', 'карта', 'cjm', 'grafana', 'актив', 'купля', 'сценарий', 'принцип', 'яндекс', 'затрата', 'kafka', 'ценность', 'товарно', 'материальный', 'интервью', 'директ', 'поставщик', 'стрессоустойчивость', 'qa', 'пользовательский', 'применение', 'firebase', 'finebi', 'ux', 'ui', 'devops', 'биллинг', 'vertica', 'взаимодействие', 'figma', 'plus', 'edition', 'инициативность', 'договор', 'visio', 'enterprise', 'scala', 'kotlin', 'java', 'стандарт', 'международный', 'выставка', 'cognos', 'юридический', 'мобильный', 'лицо', 'btl', 'участие', 'профессиональный', 'метод', 'клиентоориентированность', 'недвижимость', 'валютный', 'mysql', 'чтение', 'задолженность', 'дебиторский', 'statistics', 'spss', 'строительство', 'coreldraw', 'целевой', 'трафик', 'жилой', 'аудитория', 'арбитраж', 'правовой', 'заказчик', 'графический', 'администрирование', 'тренинг', 'коучинг', 'project', 'sas', 'olap', 'nifi', 'appmetrica', 'сми', 'платежеспособность', 'банковский', 'mytarget', 'facebook', 'ads', 'нормативно', 'документ', 'word', 'склад', 'blockchain', 'страхование', 'расчет', 'процентный', 'лояльность', 'кредитный', 'цифровой', 'сделка', 'качество', 'мотивировать', 'адаптировать', 'amocrm', 'онлайн', 'сообщение', 'рассылка', 'anaplan', 'обеспечение', 'подбор', 'wms', 'docker', 'численный', 'transact', 'togaf', 'безопасность', 'seaborn', 'palomars', 'mindbox', 'matplotlib', 'биржа', 'русский', 'мониторинг', 'конструкторский', 'банк', 'корпоративный', 'сервер', 'критический', 'гис', 'roistat', 'приложение', 'логический', 'kubernetes', 'autocad', 'стать', 'логистический', 'low', 'ios', 'illustrator', 'code', 'tilda', 'орган', 'контролировать', 'схема', 'ax', 'внедрение', 'архитектурный', 'teradata', 'mongodb', 'kpi', 'golang', 'android', 'транспортный', 'государственный', 'автозапчасть', 'dynamics', 'ремонт', 'модель', 'внешнеэкономический', 'автоматизация', 'nosql', 'ценный', 'листинг', 'коттеджный', 'бумага', 'hysys', 'aspen', 'эксплуатация', 'доступ', 'gamedev', 'development', 'customer', 'поддержка', 'использование', 'самостоятельность', 'автомобиль', 'метрика', 'мерчандайзинг', 'инвентаризация', 'экспедирование', 'труд', 'складской', 'оплата', 'кассовый', 'смета', 'рыночный', 'риска', 'процедура', 'медиалогия', 'гранд', 'банкротство', 'storage', 'smm', 'simple', 'service', 'key', 'collector', 'amazon', 'adfox', 'пользователь', 'unix', 'saas', 'paas', 'linux', 'itsm', 'iaas', 'end', 'creatio', 'юнит', 'экономика', 'характеристика', 'устройство', 'строительный', 'средство', 'подрядчик', 'немецкий', 'конструкция', 'tarantool', 'salesforce', 'mixpanel', 'db', 'монтаж', 'методология', 'диаграмма', 'idef', 'фотография', 'спецтехника', 'ретушь', 'прототипирование', 'здание', 'диаграммами', 'ветеринария', 'powershell', 'notes', 'matlab', 'lotus', 'dfd', 'data', 'услуга', 'производство', 'программный', 'проектирование', 'опытно', 'легковой', 'доставка', 'rabbitmq', 'prometheus', 'postman', 'elasticsearch', 'arenadatadb', 'обслуживание', 'net', 'учебный', 'требование', 'сбор', 'преподавание', 'предприятие', 'подготовка', 'грузовой', 'возражение', 'zabbix', 'studio', 'scada', 'php', 'front', 'тендерный', 'судебный', 'скорый', 'релиз', 'реаниматология', 'разбирательство', 'продюсирование', 'пресс', 'предупредительный', 'помощь', 'планово', 'компания', 'запись', 'декларант', 'видеолекция', 'бригада', 'аванкор', 'target', 'catia', 'позитивный', 'компьютерный', 'эмитент', 'ученик', 'спарк', 'рецептура', 'интерфакс', 'инкотермс', 'вэд', 'smartvista', 'professional', 'pro', 'premiere', 'paint', 'material', 'mapinfo', 'effects', 'dns', 'design', 'arcgis', 'after', 'семинар', 'реляционный', 'отображение', 'микропроцессор', 'микроконтроллер', 'гаджет', 'бытовой', 'аренда', 'автотранспорт', 'webdriver', 'teamcenter', 'selenium', 'qgis', 'mathcad', 'indesign', 'directory', 'dbeaver', 'active', 'фотосъемка', 'фирма', 'отгрузка', 'лизинг', 'tm', 'suite', 'slack', 'rx', 'nx', 'kibana', 'directum', 'cassandra', 'architect', 'техника', 'сметный', 'прием', 'объектно', 'компас', 'коммутатор', 'испанский', 'видеозвонок', 'банкинг', 'wordpress', 'terrasoft', 'swagger', 'back', 'archimate', 'финанс', 'построение', 'инженерный', 'изыскание', 'бит', 'sharepoint', 'redis', 'iiko', 'hr', 'aris', 'программа', 'парус', 'бухгалтерия', 'оргтехника', 'кадровый', 'автоматизированный']</t>
-  </si>
-  <si>
-    <t>['управление', 'анализ', 'microsoft', 'данные', 'грамотность', 'sql', 'работа', 'разработка', 'мышление', 'аналитический', 'bi', 'информационный', 'технический', 'бизнес', 'процесс', 'формирование', 'задание', 'excel', 'проект', 'bpmn', 'знание', 'организация', 'система', 'продажа', 'api', 'ведение', 'python', 'база', 'проведение', 'системный', 'erp', 'uml', 'базовый', 'powerpoint', 'коммуникативный', 'sap', 'персонал', 'power', 'лидерство', 'научно', 'исследовательский', 'исследование', 'маркетинговый', 'документация', 'рынок', 'server', 'отчетность', 'обработка', 'оптимизация', 'статистический', 'учет', 'язык', 'команда', 'среда', 'конкурентный', 'английский', 'javascript', 'финансовый', 'принцип', 'ценообразование', 'создание', 'confluence', 'презентационный', 'материал', 'инструментальный', 'visio', 'область', 'чтение', 'google', 'многозадачность', 'документооборот', 'бухгалтерский', 'публичный', 'презентация', 'нормативный', 'выступление', 'пк', 'риск', 'apache', 'ассортимент', 'проектный', 'управленческий', 'маркетинг', 'postgresql', 'маркетплейс', 'основа', 'обучение', 'интегративный', 'машинный', 'применение', 'сценарий', 'продукт', 'тестирование', 'пользовательский', 'tableau', 'oracle', 'моделирование', 'математический', 'office', 'клиент', 'консультирование', 'access', 'методология', 'idef', 'etl', 'crm', 'database', 'экономический', 'query', 'visual', 'обучаемость', 'адаптивность', 'требование', 'сбор', 'for', 'basic', 'applications', 'analytics', 'dwh', 'целеустремленность', 'работоспособность', 'аналитика', 'планирование', 'стратегия', 'визуализация', 'поисковый', 'seo', 'веб', 'сайт', 'abc', 'qa', 'внимательность', 'мониторинг', 'обеспечение', 'логистика', 'проактивность', 'ответственность', 'навык', 'hadoop', 'сми', 'kafka', 'битрикс', 'организаторский', 'postman', 'swot', 'pest', 'самоорганизованность', 'бюджетирование', 'ux', 'ui', 'git', 'business', 'безопасность', 'project', 'налоговый', 'бренд', 'ibm', 'абс', 'хозяйственный', 'финансово', 'pivot', 'деятельность', 'дизайн', 'spark', 'html', 'css', 'инвестиционный', 'figma', 'закупка', 'цфт', 'swagger', 'sheets', 'outlook', 'dynamics', 'statistics', 'spss', 'dax', 'рекламный', 'scala', 'kotlin', 'java', 'написание', 'ценность', 'товарно', 'материальный', 'инструмент', 'ax', 'оценка', 'решение', 'sas', 'кредитование', 'банк', 'документ', 'правовой', 'нормативно', 'сфера', 'умение', 'контроль', 'локальный', 'аудит', 'tag', 'manager', 'docs', 'rx', 'directum', 'производственный', 'креативный', 'эффективность', 'акт', 'wms', 'clickhouse', 'devops', 'недвижимость', 'зарплата', 'интервью', 'принимать', 'studio', 'составление', 'программирование', 'elma', 'взаимодействие', 'word', 'airflow', 'медиалогия', 'текст', 'редактирование', 'метод', 'заказчик', 'процентный', 'ориентированный', 'кредитный', 'intelligence', 'складской', 'объектно', 'superset', 'сеть', 'диаграмма', 'тренинг', 'коучинг', 'автоматизация', 'mysql', 'itsm', 'aris', 'er', 'adobe', 'sense', 'qlik', 'программный', 'администрирование', 'жилой', 'enterprise', 'camunda', 'стрессоустойчивость', 'клиентоориентированность', 'путь', 'карта', 'cjm', 'продвижение', 'поставщик', 'мобильный', 'wsdl', 'photoshop', 'plus', 'edition', 'страхование', 'релейный', 'защита', 'автоматика', 'rabbitmq', 'инициативность', 'предприятие', 'cognos', 'банковский', 'актив', 'docker', 'график', 'appsflyer', 'adwords', 'net', 'olap', 'яндекс', 'стать', 'потребитель', 'бит', 'php', 'качество', 'тоир', 'настройка', 'контурэкстерна', 'amplitude', 'mongodb', 'выполнение', 'amocrm', 'затрата', 'unix', 'linux', 'hr', 'blockchain', 'целевой', 'промо', 'инвентаризация', 'гис', 'аудитория', 'акция', 'terrasoft', 'elasticsearch', 'cad', 'социальный', 'пользователь', 'онлайн', 'diasoft', 'кампания', 'аренда', 'экспедирование', 'arcgis', 'финанс', 'конструкторский', 'grafana', 'цифровой', 'сапр', 'transact', 'android', 'транспортный', 'стоимость', 'имущество', 'tm', 'suite', 'директ', 'qgis', 'склад', 'парус', 'биржа', 'nosql', 'nav', 'опытно', 'критический', 'youtrack', 'teradata', 'финансирование', 'data', 'поддержка', 'труд', 'оплата', 'договор', 'таргетированный', 'реклама', 'позитивный', 'логический', 'строительство', 'soapui', 'autodesk', 'модель', 'контент', 'инженерный', 'изыскание', 'дистрибуция', 'saas', 'paas', 'iaas', 'передача', 'метрика', 'обслуживание', 'услуга', 'операция', 'сделка', 'yaml', 'schema', 'json', 'самостоятельность', 'медиапланирование', 'лояльность', 'купля', 'конструктор', 'диаграммами', 'openshift', 'dfd', 'юридический', 'построение', 'лицо', 'low', 'ios', 'end', 'code', 'химический', 'формулировать', 'мысль', 'выражать', 'численный', 'расчет', 'togaf', 'red', 'hat', 'archimate', 'использование', 'финансы', 'сбыт', 'подготовка', 'канал', 'windows', 'sharepoint', 'front', 'русский', 'nifi', 'kibana', 'development', 'customer', 'coreldraw', 'architect', 'производство', 'рецептура', 'wireshark', 'bigquery', 'продукция', 'autocad', 'предложение', 'мерчандайзинг', 'коммерческий', 'архитектурный', 'альф', 'авто', 'web', 'anaplan', 'семинар', 'подрядчик', 'бронирование', 'vertica', 'teamcenter', 'iot', 'directory', 'active', 'оргтехника', 'компьютерный', 'сетевой', 'логистический', 'illustrator', 'helpdesk', 'хроматографический', 'otrs', 'mediascope', 'graylog', 'bizagi', 'товар', 'прототипирование', 'схема', 'приложение', 'оборудование', 'задолженность', 'дебиторский', 'трафик', 'сметный', 'проектирование', 'арбитраж', 'кадровый', 'электроприбор', 'конструирование', 'ассемблер', 'vanessa', 'planning', 'mdx', 'key', 'collector', 'canva', 'automation', 'внешнеэкономический', 'creatio', 'чпу', 'станок', 'стандарт', 'сборка', 'реляционный', 'платежеспособность', 'оформление', 'отображение', 'мойсклад', 'микропроцессор', 'микроконтроллер', 'salesforce', 'ruby', 'revit', 'qwery', 'pascal', 'kvm', 'esb', 'delphi', 'монтаж', 'kubernetes', 'эксплуатация', 'экспертиза', 'технология', 'техник', 'сотовый', 'связь', 'прохождение', 'отгрузка', 'лизинг', 'доступ', 'matlab', 'gamedev', 'finebi', 'автоматизированный', 'сообщение', 'сервер', 'прием', 'компас', 'ипотечный', 'доставка', 'внутренний', 'видеозвонок', 'банкинг', 'golang', 'arenadatadb', 'scada', 'iiko', 'эмиссия', 'фонд', 'федеральный', 'фгос', 'теплоснабжение', 'спфс', 'реализация', 'отчет', 'ориентация', 'нефтепродукт', 'местность', 'инфо', 'vipnet', 'renga', 'paradigm', 'metabase', 'lightroom', 'exasol', 'eam', 'dod', 'bim', 'программа', 'подбор', 'бухгалтерия', 'эмитент', 'учреждение', 'таможенный', 'россия', 'процедура', 'проектно', 'образовательный', 'мединский', 'маршрутизатор', 'лабораторный', 'диагностика', 'декларирование', 'галактика', 'вэд', 'витрина', 'банкротство', 'way', 'uipath', 'smm', 'quik', 'qort', 'professional', 'palomars', 'navisworks', 'max', 'mapinfo', 'lua', 'firebird', 'ds', 'adfox', 'мотивировать', 'адаптировать', 'участие', 'соблюдение', 'профессиональный', 'протоколирование', 'международный', 'корпоративный', 'комплексный', 'имитационный', 'государственный', 'выставка', 'видеосъемка', 'webdriver', 'selenium', 'safe', 'platform', 'pdm', 'oauth', 'movie', 'maker', 'lims', 'indesign', 'getcourse', 'flink', 'flex', 'dbeaver', 'cloud', 'чертеж', 'фотография', 'фирма', 'торговля', 'структура', 'ретушь', 'организационный', 'заказ', 'егаис', 'автокредитование', 'unity', 'slack', 'powershell', 'nx', 'notes', 'lotus', 'lms', 'firebase', 'cassandra', 'appmetrica', 'техника', 'рассылка', 'легковой', 'внедрение', 'wordpress', 'roistat', 'prometheus', 'kpi', 'back', 'ремонт', 'привлечение', 'преподавать', 'преподавание', 'поиск', 'конфликт', 'графический', 'видео', 'zabbix', 'redis', 'телефонный', 'расчетно', 'операционный', 'автомобиль', 'новый', 'кассовый']</t>
-  </si>
-  <si>
-    <t>['управление', 'бизнес', 'разработка', 'процесс', 'bi', 'организация', 'microsoft', 'bpmn', 'анализ', 'работа', 'грамотность', 'проект', 'мышление', 'аналитический', 'система', 'технический', 'оптимизация', 'sql', 'формирование', 'задание', 'данные', 'информационный', 'uml', 'коммуникативный', 'ведение', 'лидерство', 'знание', 'персонал', 'excel', 'системный', 'документация', 'продукт', 'erp', 'confluence', 'проведение', 'база', 'visio', 'powerpoint', 'power', 'продажа', 'применение', 'api', 'научно', 'исследовательский', 'язык', 'английский', 'нормативный', 'отчетность', 'методология', 'idef', 'server', 'сценарий', 'пользовательский', 'управленческий', 'создание', 'презентационный', 'материал', 'базовый', 'требование', 'сбор', 'рынок', 'crm', 'публичный', 'презентация', 'выступление', 'команда', 'документооборот', 'python', 'финансовый', 'консультирование', 'sap', 'business', 'интегративный', 'обучаемость', 'битрикс', 'адаптивность', 'клиент', 'studio', 'чтение', 'проектный', 'тестирование', 'область', 'учет', 'javascript', 'логистика', 'маркетинговый', 'среда', 'конкурентный', 'навык', 'многозадачность', 'карта', 'организаторский', 'путь', 'cjm', 'ux', 'ui', 'qa', 'бюджетирование', 'инструментальный', 'исследование', 'обеспечение', 'риск', 'дизайн', 'wms', 'самоорганизованность', 'figma', 'составление', 'aris', 'принцип', 'пк', 'бухгалтерский', 'postgresql', 'умение', 'office', 'elma', 'решение', 'google', 'access', 'целеустремленность', 'работоспособность', 'автоматизация', 'стратегия', 'обработка', 'контроль', 'oracle', 'enterprise', 'визуализация', 'project', 'безопасность', 'query', 'статистический', 'принимать', 'планирование', 'аудит', 'прототипирование', 'программный', 'моделирование', 'маркетплейс', 'потребитель', 'проактивность', 'правовой', 'ответственность', 'нормативно', 'документ', 'закупка', 'database', 'architect', 'производственный', 'внимательность', 'экономический', 'tableau', 'dwh', 'тренинг', 'маркетинг', 'коучинг', 'предприятие', 'затрата', 'itsm', 'devops', 'математический', 'стрессоустойчивость', 'метод', 'качество', 'диаграмма', 'scala', 'kotlin', 'java', 'сфера', 'инвестиционный', 'visual', 'for', 'basic', 'applications', 'ценообразование', 'складской', 'кредитование', 'деятельность', 'net', 'docs', 'intelligence', 'хозяйственный', 'финансово', 'локальный', 'акт', 'ассортимент', 'основа', 'выполнение', 'dynamics', 'etl', 'clickhouse', 'ax', 'маркировка', 'apache', 'бренд', 'банковский', 'аналитика', 'rx', 'directum', 'camunda', 'swot', 'pest', 'mysql', 'клиентоориентированность', 'заказчик', 'взаимодействие', 'amocrm', 'сырье', 'радиосистема', 'процессный', 'готовый', 'outlook', 'lims', 'youtrack', 'togaf', 'terrasoft', 'postman', 'ibm', 'обучение', 'веб', 'adobe', 'hadoop', 'creatio', 'структура', 'стоимость', 'организационный', 'имущество', 'plus', 'edition', 'экспедирование', 'оценка', 'актив', 'меркурий', 'машинный', 'инструмент', 'teradata', 'swagger', 'pivot', 'транспортный', 'инициативность', 'протоколирование', 'операция', 'sheets', 'юридический', 'лицо', 'конструкторский', 'валютный', 'nosql', 'реинжиниринг', 'видеоаналитика', 'сотовый', 'связь', 'контурэкстерна', 'егаис', 'dax', 'word', 'продвижение', 'sense', 'qlik', 'расчет', 'опытно', 'метрика', 'superset', 'cognos', 'anaplan', 'интервью', 'автоматизированный', 'яндекс', 'преподавать', 'модель', 'sharepoint', 'saas', 'paas', 'kafka', 'illustrator', 'iaas', 'git', 'blockchain', 'обслуживание', 'юнит', 'экономика', 'зарплата', 'qwery', 'продукция', 'оборудование', 'photoshop', 'abc', 'финансирование', 'уровень', 'коммутационный', 'диаграммами', 'автокредитование', 'olap', 'notes', 'lotus', 'finebi', 'dfd', 'data', 'amplitude', 'цифровой', 'поисковый', 'seo', 'analytics', 'эквайринг', 'цфт', 'целевой', 'передача', 'ипотечный', 'банкинг', 'аудитория', 'архитектурный', 'transact', 'сайт', 'мотивировать', 'использование', 'адаптировать', 'поставщик', 'онлайн', 'логистический', 'внешнеэкономический', 'абс', 'sas', 'php', 'low', 'iiko', 'end', 'code', 'дорожный', 'эффективность', 'схема', 'рекламный', 'расчетно', 'приложение', 'подбор', 'парус', 'операционный', 'администрирование', 'услуга', 'труд', 'производство', 'оплата', 'настройка', 'кассовый', 'банк', 'электроприбор', 'сппр', 'принятие', 'мегаплан', 'конструирование', 'график', 'qort', 'opencart', 'поддержка', 'креативный', 'строительный', 'сборка', 'прибор', 'коммуникативная', 'имитационный', 'измерительный', 'tag', 'soapui', 'qgis', 'pdm', 'manager', 'keeper', 'asana', 'техник', 'медиапланирование', 'лояльность', 'купля', 'openshift', 'naumen', 'er', 'appmetrica', 'численный', 'сметный', 'коммутатор', 'испанский', 'гис', 'внутренний', 'внедрение', 'альф', 'авто', 'roistat', 'red', 'kpi', 'hat', 'back', 'arenadatadb', 'archimate', 'airflow', 'финансы', 'финанс', 'учебный', 'сетевой', 'построение', 'пользователь', 'бит', 'windows', 'scada', 'redis', 'nav', 'hr', 'helpdesk', 'grafana', 'front', 'docker', 'ценность', 'товарно', 'таргетированный', 'склад', 'самостоятельность', 'реклама', 'программа', 'налоговый', 'материальный', 'логический', 'бухгалтерия', 'биржа', 'kubernetes', 'autocad', 'текст', 'редактирование', 'оргтехника', 'компьютерный', 'кадровый', 'договор', 'написание', 'html', 'css']</t>
-  </si>
-  <si>
-    <t>['проведение', 'тренинг', 'коучинг', 'продажа', 'обучаемость', 'адаптивность', 'грамотность', 'персонал', 'управление', 'коммуникативный', 'публичный', 'презентация', 'выступление', 'учебный', 'лидерство', 'организаторский', 'навык', 'потребитель', 'процесс', 'организация', 'анализ', 'техник', 'работа', 'обучение', 'умение', 'команда', 'базовый', 'microsoft', 'мотивировать', 'знание', 'адаптировать', 'инструментальный', 'клиент', 'powerpoint', 'заказчик', 'взаимодействие', 'самоорганизованность', 'целеустремленность', 'работоспособность', 'ведение', 'создание', 'презентационный', 'материал', 'мышление', 'методический', 'многозадачность', 'проект', 'информационный', 'подбор', 'документооборот', 'разработка', 'психология', 'язык', 'бизнес', 'английский', 'пк', 'планирование', 'тестирование', 'qa', 'область', 'общий', 'креативный', 'преподавать', 'проактивность', 'ответственность', 'аналитический', 'нормативный', 'документация', 'ученик', 'отчетность', 'консультирование', 'excel', 'система', 'формат', 'оптимизация', 'клиентоориентированность', 'возражение', 'преподавание', 'онлайн', 'образовательный', 'продукт', 'оценка', 'управленческий', 'страхование', 'контроль', 'bi', 'office', 'стрессоустойчивость', 'договор', 'качество', 'грузовой', 'составление', 'системный', 'решение', 'принимать', 'правовой', 'логистика', 'интегративный', 'детский', 'программа', 'автомобиль', 'конфликт', 'технический', 'психологический', 'складской', 'характеристика', 'устройство', 'средство', 'конструкция', 'недвижимость', 'жилой', 'photoshop', 'adobe', 'инициативность', 'внимательность', 'crm', 'фотосъемка', 'структура', 'спецтехника', 'организационный', 'нормативно', 'документ', 'google', 'производство', 'outlook', 'ремонт', 'ресторанный', 'менеджмент', 'webtutor', 'написание', 'позитивный', 'закупка', 'мерчандайзинг', 'испанский', 'интервью', 'visio', 'sheets', 'стать', 'графический', 'транспортный', 'маркетинг', 'данные', 'выполнение', 'word', 'семинар', 'ремонтный', 'гарантийный', 'машинный', 'купля', 'lms', 'дизайн', 'критический', 'финансовый', 'учет', 'поддержка', 'основа', 'использование', 'социальный', 'привлечение', 'поиск', 'видео', 'эстетический', 'косметология', 'коррекция', 'возрастной', 'телефонный', 'применение', 'монтаж', 'локальный', 'биржа', 'акт', 'текст', 'редактирование', 'новый', 'актив', 'светотехника', 'ребенок', 'работать', 'формирование', 'рынок', 'производственный', 'обслуживание', 'задание', 'битрикс', 'sql', 'sap', 'project', 'html', 'docs', 'css', 'movie', 'maker', 'getcourse', 'flutter', 'ветеринария', 'автокредитование', 'tilda', 'development', 'customer', 'сапр', 'промо', 'внедрение', 'видеозвонок', 'акция', 'kpi', 'cad', 'логистический', 'windows', 'swot', 'pest', 'aris', 'схема', 'среда', 'продвижение', 'методология', 'метод', 'конкурентный', 'scala', 'kotlin', 'java', 'idef', 'цифровой', 'ценообразование', 'хозяйственный', 'финансово', 'труд', 'поисковый', 'оплата', 'кредитование', 'компьютерный', 'seo', 'confluence', 'чтение', 'статистический', 'сайт', 'проектный', 'обработка', 'деятельность', 'бюджетирование', 'база', 'net', 'erp', 'amocrm']</t>
-  </si>
-  <si>
-    <t>['управление', 'продукт', 'грамотность', 'анализ', 'проект', 'коммуникативный', 'работа', 'проведение', 'продажа', 'мышление', 'знание', 'лидерство', 'персонал', 'разработка', 'аналитический', 'рынок', 'исследование', 'маркетинговый', 'язык', 'английский', 'публичный', 'презентация', 'выступление', 'microsoft', 'среда', 'конкурентный', 'ассортимент', 'технический', 'система', 'процесс', 'навык', 'бизнес', 'маркетинг', 'бренд', 'организаторский', 'системный', 'ценообразование', 'формирование', 'задание', 'интегративный', 'клиент', 'команда', 'информационный', 'область', 'bi', 'стратегия', 'маркетплейс', 'организация', 'основа', 'ux', 'ui', 'базовый', 'ведение', 'дизайн', 'данные', 'тестирование', 'создание', 'потребитель', 'продвижение', 'оптимизация', 'презентационный', 'материал', 'powerpoint', 'закупка', 'excel', 'development', 'customer', 'поставщик', 'самоорганизованность', 'инструментальный', 'составление', 'планирование', 'научно', 'исследовательский', 'целеустремленность', 'работоспособность', 'применение', 'sql', 'метод', 'многозадачность', 'обучаемость', 'адаптивность', 'карта', 'путь', 'cjm', 'документация', 'привлечение', 'поиск', 'креативный', 'google', 'новый', 'чтение', 'документооборот', 'консультирование', 'договор', 'умение', 'пк', 'обеспечение', 'битрикс', 'сценарий', 'пользовательский', 'решение', 'crm', 'confluence', 'предложение', 'коммерческий', 'подготовка', 'figma', 'принимать', 'отчетность', 'проактивность', 'ответственность', 'qa', 'analytics', 'adobe', 'контроль', 'инструмент', 'amplitude', 'база', 'модель', 'saas', 'paas', 'iaas', 'заказчик', 'взаимодействие', 'тренинг', 'сайт', 'коучинг', 'веб', 'проектный', 'поисковый', 'кредитование', 'seo', 'рекламный', 'аналитика', 'мобильный', 'безопасность', 'photoshop', 'финансовый', 'эффективность', 'логистика', 'оценка', 'учебный', 'использование', 'python', 'abc', 'клиентоориентированность', 'docs', 'devops', 'gamedev', 'выполнение', 'scala', 'kotlin', 'java', 'autocad', 'риск', 'программный', 'ценность', 'товарно', 'материальный', 'html', 'css', 'текст', 'редактирование', 'банковский', 'учет', 'внимательность', 'качество', 'производственный', 'office', 'прием', 'написание', 'инициативность', 'обучение', 'bpmn', 'server', 'cad', 'сеть', 'нормативный', 'erp', 'dynamics', 'подбор', 'project', 'swot', 'pest', 'ios', 'параллельный', 'правовой', 'нормативно', 'документ', 'бюджетирование', 'сапр', 'ипотечный', 'api', 'сбыт', 'канал', 'archicad', 'стрессоустойчивость', 'postgresql', 'прототипирование', 'программирование', 'юридический', 'требование', 'сбор', 'лицо', 'javascript', 'продукция', 'sheets', 'мотивировать', 'адаптировать', 'целевой', 'аудитория', 'android', 'социальный', 'логистический', 'itsm', 'станция', 'лояльность', 'заказ', 'автоматический', 'машинный', 'администрирование', 'ax', 'выставка', 'safe', 'производство', 'интервью', 'актив', 'электротехнический', 'электротехника', 'схема', 'принцип', 'задолженность', 'дебиторский', 'внешнеэкономический', 'php', 'операция', 'инвентаризация', 'обслуживание', 'деятельность', 'участие', 'профессиональный', 'оформление', 'моделирование', 'outlook', 'диагностика', 'телефонный', 'wms', 'пользователь', 'графический', 'unix', 'linux', 'git', 'blockchain', 'apache', 'технологический', 'чертеж', 'товар', 'техник', 'отгрузка', 'управленческий', 'страхование', 'конструкторский', 'illustrator', 'статистический', 'обработка', 'цифровой', 'услуга', 'складской', 'uml', 'тмц', 'сохранность', 'сотовый', 'связь', 'контент', 'инвестиционный', 'дистрибуция', 'nav', 'kafka', 'поддержка', 'amocrm', 'функциональный', 'прибор', 'измерительный', 'adwords', 'эквайринг', 'опытно', 'мерчандайзинг', 'коммутатор', 'склад', 'преподавать', 'helpdesk', 'медиапланирование', 'firebase', 'аудит', 'автоматизированный', 'срок', 'годность', 'storehouse', 'приложение', 'позитивный', 'автомобиль', 'clickhouse', 'трафик', 'критический', 'арбитраж', 'wordpress', 'формат', 'кампания', 'revit', 'keeper', 'autodesk', 'asana', 'visio', 'конфликт', 'low', 'end', 'code', 'травматология', 'технико', 'ролик', 'рисование', 'перевод', 'ортопедия', 'мнение', 'лидер', 'блогер', 'анонс', 'лизинг', 'tilda', 'appmetrica', 'sap', 'логический', 'tableau', 'промо', 'проектирование', 'легковой', 'youtrack', 'mongodb', 'кассовый', 'access', 'упаковка', 'строительно', 'сооружение', 'светотехника', 'размещение', 'разгрузочный', 'погрузочно', 'монтажный', 'лабораторный', 'груз', 'voip', 'unreal', 'engine', 'btl', 'ansys', 'преподавание', 'построение', 'онлайн', 'возражение', 'валютный', 'redis', 'mysql', 'word', 'хозяйство', 'соблюдение', 'подрядчик', 'платежеспособность', 'небольшой', 'грузовик', 'автозапчасть', 'salesforce', 'mixpanel', 'математический', 'диаграмма', 'kubernetes', 'мониторинг', 'конструктор', 'здание', 'slack', 'lms', 'axelot', 'экспедирование', 'хозяйственный', 'финансово', 'труд', 'оплата', 'настройка', 'техника', 'расчет', 'компас', 'внутренний', 'web', 'spark', 'rabbitmq', 'prometheus', 'golang', 'elasticsearch', 'back', 'транспортный', 'net', 'сетевой', 'грузовой', 'zabbix', 'sharepoint', 'scada', 'sas', 'iiko', 'grafana', 'front', 'docker', 'creatio', 'эндоскопия', 'подразделение', 'отделка', 'cfx', 'таргетированный', 'реклама', 'расчетно', 'программа', 'операционный', 'монтаж', 'методология', 'idef', 'кадровый', 'банк', 'oracle', 'database', 'сантехнический', 'риторика', 'помещение', 'плата', 'печатный', 'мегаплан', 'маршрутизатор', 'инкотермс', 'doors', 'designer', 'altium', 'юнит', 'экономика', 'сборка', 'ремонтный', 'мойсклад', 'коммуникативная', 'инжиниринг', 'инвестор', 'видеосъемка', 'бронирование', 'platform', 'mathcad', 'indesign', 'getcourse', 'flutter', 'flex', 'cloud', 'appsflyer', 'фотосъемка', 'технология', 'спецтехника', 'ориентированный', 'ветеринария', 'unity', 'openshift', 'nx', 'naumen', 'matlab', 'data', 'coreldraw', 'численный', 'цфт', 'сообщение', 'сметный', 'рассылка', 'объектно', 'метрика', 'доставка', 'биллинг', 'альф', 'акция', 'авто', 'red', 'hat', 'яндекс', 'инженерный', 'изыскание', 'видео', 'абс', 'studio', 'nosql', 'hr', 'hadoop', 'самостоятельность', 'оборудование', 'визуализация', 'etl', 'dwh', 'оргтехника', 'компьютерный', 'бухгалтерский', 'power']</t>
-  </si>
-  <si>
-    <t>['ведение', 'грамотность', 'документооборот', 'базовый', 'знание', 'работа', 'пк', 'коммуникативный', 'информационный', 'microsoft', 'учет', 'команда', 'управление', 'данные', 'база', 'инструментальный', 'складской', 'оргтехника', 'оформление', 'прием', 'внимательность', 'excel', 'инвентаризация', 'ценность', 'товарно', 'материальный', 'заказ', 'проведение', 'клиент', 'логистика', 'бухгалтерский', 'область', 'многозадачность', 'отчетность', 'отгрузка', 'консультирование', 'контроль', 'office', 'проактивность', 'ответственность', 'outlook', 'возврат', 'обучаемость', 'адаптивность', 'система', 'продажа', 'поставщик', 'мышление', 'wms', 'взаимодействие', 'аналитический', 'заказчик', 'груз', 'погрузочно', 'разгрузочный', 'целеустремленность', 'работоспособность', 'самоорганизованность', 'клиентоориентированность', 'стрессоустойчивость', 'договор', 'word', 'обеспечение', 'составление', 'sap', 'анализ', 'тмц', 'сохранность', 'навык', 'организаторский', 'erp', 'битрикс', 'меркурий', 'обслуживание', 'powerpoint', 'качество', 'закупка', 'егаис', 'гарантийный', 'задолженность', 'дебиторский', 'экспедирование', 'adobe', 'умение', 'транспортный', 'google', 'кассовый', 'операция', 'банковский', 'crm', 'маркетплейс', 'технический', 'доставка', 'касса', 'язык', 'audition', 'маркировка', 'товар', 'docs', 'преподавать', 'контент', 'дистрибуция', 'создание', 'dynamics', 'срок', 'годность', 'обработка', 'английский', 'привлечение', 'поиск', 'программа', 'ax', 'планирование', 'размещение', 'организация', 'склад', 'возражение', 'решение', 'принимать', 'персонал', 'лидерство', 'статистический', 'разработка', 'производственный', 'написание', 'новый', 'интервью', 'photoshop', 'выполнение', 'текст', 'редактирование', 'access', 'хозяйство', 'конфликт', 'ценообразование', 'техника', 'соблюдение', 'оптимизация', 'торговля', 'внутренний', 'процесс', 'бизнес', 'инициативность', 'безопасность', 'тренинг', 'коучинг', 'видеозвонок', 'позитивный', 'мойсклад', 'sheets', 'postgresql', 'маршрут', 'публичный', 'презентация', 'выступление', 'sql', 'таможенный', 'декларирование', 'мерчандайзинг', 'axelot', 'видеосъемка', 'подготовка', 'графический', 'видео', 'производство', 'налоговый', 'монтаж', 'администрирование', 'coreldraw', 'логистический', 'системный', 'сайт', 'документ', 'физический', 'выносливость', 'дизайн', 'телефонный', 'схема', 'чтение', 'проект', 'презентационный', 'материал', 'интегративный', 'документация', 'социальный', 'фотография', 'ретушь', 'риторика', 'сеть', 'продвижение', 'формирование', 'финансовый', 'правовой', 'html', 'css', 'amocrm', 'сми', 'гаджет', 'бытовой', 'труд', 'поисковый', 'оплата', 'банк', 'seo', 'стать', 'ремонт', 'сортировка', 'разгрузочные', 'инкассация', 'выдача', 'acrobat', 'фирма', 'русский', 'ветеринария', 'логический', 'веб', 'аналитика', 'промо', 'акция', 'программный', 'упаковка', 'сантехнический', 'pro', 'premiere', 'paint', 'effects', 'after', 'сетевой', 'сбыт', 'канал', 'инженерный', 'изыскание', 'nav', 'основа', 'маркетинг', 'креативный', 'net', 'протоколирование', 'vr', 'продукция', 'парус', 'оборудование', 'autocad', 'экспертиза', 'чертеж', 'фотосъемка', 'станция', 'прохождение', 'мониторинг', 'автоматический', 'хозяйственный', 'финансово', 'страхование', 'настройка', 'аудит', 'oracle', 'database', 'предложение', 'коммерческий', 'альф', 'авто', 'управленческий', 'проектный', 'поддержка', 'нормативно', 'использование', 'деятельность', 'bi', 'предприятие', 'затрата', 'грузовой', 'unix', 'linux', 'illustrator', 'iiko', 'helpdesk', 'служба', 'португальский', 'контрактный', 'больнинец', 'publisher', 'среда', 'конкурентный', 'визуализация', 'автомобиль', 'sense', 'qlik', 'clickhouse', 'риск', 'кредитование', 'кадровый', 'server', 'api', 'analytics', 'чистота', 'строительно', 'порядок', 'поддержание', 'общий', 'монтажный', 'рынок', 'бюджетирование', 'характеристика', 'устройство', 'средство', 'психология', 'немецкий', 'конструкция', 'бронирование', 'автотранспорт', 'автозапчасть', 'pascal', 'delphi', 'спецтехника', 'контурэкстерна', 'сервер', 'недвижимость', 'испанский', 'ипотечный', 'жилой', 'web', 'финансы', 'исследование', 'ассортимент', 'zabbix', 'windows', 'самостоятельность', 'расчетно', 'подбор', 'операционный', 'бухгалтерия', 'kubernetes', 'etl', 'dwh', 'услуга', 'тестирование', 'научно', 'моделирование', 'маркетинговый', 'исследовательский', 'автоматизированный', 'qa', 'power', 'нормативный', 'мотивировать', 'задание', 'адаптировать', 'project']</t>
-  </si>
-  <si>
-    <t>['javascript', 'разработка', 'scala', 'kotlin', 'java', 'git', 'php', 'sql', 'html', 'css', 'api', 'postgresql', 'python', 'управление', 'мобильный', 'программирование', 'объектно', 'docker', 'знание', 'ориентированный', 'mysql', 'работа', 'apache', 'net', 'базовый', 'данные', 'принцип', 'golang', 'microsoft', 'end', 'база', 'kafka', 'android', 'server', 'битрикс', 'rabbitmq', 'devops', 'система', 'проект', 'front', 'erp', 'redis', 'ios', 'приложение', 'администрирование', 'kubernetes', 'mongodb', 'верстка', 'микропроцессор', 'микроконтроллер', 'грамотность', 'linux', 'unix', 'реляционный', 'отображение', 'язык', 'английский', 'обеспечение', 'обучение', 'машинный', 'oracle', 'технический', 'database', 'сайт', 'программный', 'ruby', 'ведение', 'тестирование', 'qa', 'команда', 'back', 'etl', 'мышление', 'elasticsearch', 'sap', 'навык', 'информационный', 'wordpress', 'формирование', 'задание', 'clickhouse', 'пк', 'hadoop', 'персонал', 'коммуникативный', 'документация', 'flutter', 'аналитический', 'лидерство', 'многозадачность', 'gamedev', 'unity', 'программировать', 'интегральный', 'dart', 'ux', 'ui', 'дизайн', 'vhdl', 'airflow', 'учет', 'сеть', 'simatic', 'проактивность', 'ответственность', 'pascal', 'delphi', 'nosql', 'spark', 'анализ', 'построение', 'task', 'queue', 'celery', 'dwh', 'обучаемость', 'адаптивность', 'bi', 'figma', 'автоматизированный', 'websocket', 'wincc', 'sqlite', 'бухгалтерский', 'transact', 'целеустремленность', 'работоспособность', 'моделирование', 'процесс', 'самоорганизованность', 'проектирование', 'компьютерный', 'схема', 'документооборот', 'бизнес', 'tia', 'portal', 'coroutines', 'оптимизация', 'численный', 'расчет', 'продукт', 'confluence', 'scada', 'xcode', 'плата', 'печатный', 'modx', 'openshift', 'matlab', 'нормативный', 'crm', 'red', 'hat', 'cad', 'чтение', 'финансовый', 'blockchain', 'организация', 'cmake', 'монтаж', 'инструментальный', 'power', 'autodesk', 'поисковый', 'seo', 'designer', 'altium', 'memcached', 'безопасность', 'актив', 'swagger', 'opengl', 'конструктор', 'цифровой', 'создание', 'системный', 'решение', 'grafana', 'сапр', 'ассемблер', 'camunda', 'пуско', 'наладочный', 'контроллер', 'настройка', 'сетевой', 'организаторский', 'консультирование', 'клиент', 'проведение', 'codesys', 'unreal', 'engine', 'оборудование', 'математический', 'adobe', 'firebase', 'prometheus', 'управленческий', 'умение', 'интегративный', 'windows', 'wms', 'электрический', 'mariadb', 'opencart', 'bpmn', 'обработка', 'photoshop', 'revit', 'rust', 'cocoapods', 'продажа', 'selenium', 'uml', 'сервер', 'архитектурный', 'обслуживание', 'perl', 'зарплата', 'выполнение', 'маркетплейс', 'solidworks', 'mdk', 'keil', 'веб', 'autocad', 'предприятие', 'конструкторский', 'visual', 'for', 'basic', 'applications', 'публичный', 'презентация', 'выступление', 'параллельный', 'youtrack', 'ibm', 'проектный', 'модель', 'saas', 'paas', 'iaas', 'rx', 'nx', 'directum', 'yocto', 'joomla', 'внимательность', 'бюджетирование', 'стрессоустойчивость', 'оргтехника', 'финанс', 'бит', 'ребенок', 'работать', 'platform', 'cloud', 'sense', 'qlik', 'принимать', 'отчетность', 'креативный', 'google', 'передача', 'excel', 'локальный', 'rspec', 'openstack', 'ide', 'blender', 'access', 'uipath', 'гаджет', 'бытовой', 'vr', 'эксплуатация', 'dax', 'terrasoft', 'статистический', 'абс', 'zabbix', 'studio', 'использование', 'цфт', 'компас', 'web', 'business', 'технология', 'доступ', 'powershell', 'olap', 'nifi', 'webdriver', 'iot', 'lua', 'woocommerce', 'terraform', 'realm', 'quartus', 'qemu', 'helm', 'altera', 'написание', 'парус', 'ax', 'онлайн', 'техника', 'альф', 'авто', 'arenadatadb', 'презентационный', 'область', 'материал', 'office', 'notes', 'lotus', 'kibana', 'intelligence', 'cassandra', 'kvm', 'db', 'банк', 'visio', 'dynamics', 'маршрутизация', 'haproxy', 'аналитика', 'тренинг', 'коучинг', 'ремонт', 'пользователь', 'creatio', 'enterprise', 'электронный', 'разведка', 'геологический', 'sphinx', 'opencl', 'labview', 'fastreport', 'coredata', 'avr', 'связь', 'plus', 'edition', 'производственный', 'текст', 'редактирование', 'инструмент', 'учебный', 'коммутатор', 'postman', 'инициативность', 'проектно', 'storage', 'simple', 'service', 'navisworks', 'material', 'dns', 'design', 'amazon', 'визуализация', 'бухгалтерия', 'уровень', 'сотовый', 'коммутационный', 'axelot', 'поддержка', 'sprutcam', 'solidcam', 'mockito', 'inventor', 'influxdb', 'fusion', 'buildroot', 'риск', 'научно', 'исследовательский', 'банковский', 'прибор', 'измерительный', 'oauth', 'налоговый', 'логистика', 'заказчик', 'взаимодействие', 'powerpoint', 'amocrm', 'сфера', 'графический', 'tilda', 'труд', 'страхование', 'оплата', 'электротехнический', 'сооружение', 'протокол', 'websphere', 'mq', 'самостоятельность', 'применение', 'акт', 'tableau', 'трафик', 'гис', 'биллинг', 'арбитраж', 'teradata', 'superset', 'project', 'чпу', 'станок', 'инжиниринг', 'directory', 'active', 'outlook', 'стать', 'sas', 'обратный', 'конвертация', 'webflow', 'tms', 'software', 'puppet', 'orcad', 'nats', 'messaging', 'mercurial', 'maple', 'eplan', 'drupal', 'фотография', 'фирма', 'ретушь', 'процентный', 'кредитный', 'здание', 'lms', 'транспортный', 'контроль', 'деятельность', 'задолженность', 'дебиторский', 'автомобиль', 'cognos', 'складской', 'договор', 'xbrl', 'wireshark', 'mdx', 'max', 'matplotlib', 'firebird', 'ds', 'asterisk', 'activemq', 'требование', 'сбор', 'преподавание', 'контент', 'дистрибуция', 'видео', 'sharepoint', 'low', 'code', 'составление', 'основа', 'мотивировать', 'маркетинг', 'клиентоориентированность', 'адаптировать', 'небольшой', 'грузовик', 'vertica', 'tarantool', 'esb', 'программа', 'логический', 'диаграмма', 'торговля', 'станция', 'автоматический', 'tm', 'suite', 'slack', 'elma', 'diasoft', 'sheets', 'analytics', 'опытно', 'легковой', 'видеозвонок', 'togaf', 'query', 'archimate', 'правовой', 'нормативно', 'документ', 'сбыт', 'канал', 'инженерный', 'изыскание', 'грузовой', 'автоматизация', 'itsm', 'illustrator', 'helpdesk', 'aris', 'транзакция', 'телевизионный', 'разметка', 'рабочий', 'проводной', 'моушн', 'место', 'кбр', 'ввод', 'арма', 'автоматизировать', 'virtualbox', 'spine', 'solid', 'simulink', 'servicedesk', 'sentry', 'remote', 'protocol', 'playwright', 'player', 'pipesim', 'ip', 'iac', 'flash', 'edge', 'desktop', 'cinema', 'телефонный', 'стратегия', 'продукция', 'позитивный', 'метод', 'биржа', 'экспедирование', 'услуга', 'планирование', 'новый', 'маркетинговый', 'кадровый', 'аудит', 'чистота', 'россия', 'порядок', 'поддержание', 'детский', 'афина', 'yarn', 'voip', 'vanessa', 'seaborn', 'openvpn', 'doors', 'canva', 'automation', 'ansys', 'docs', 'формат', 'строительный', 'ремонтный', 'психология', 'комплексный', 'коммуникативная', 'имитационный', 'директ', 'гарантийный', 'автотранспорт', 'wsdl', 'teamcenter', 'movie', 'mixpanel', 'mathcad', 'maker', 'flink', 'flex', 'asana', 'чертеж', 'naumen', 'finebi', 'er', 'эквайринг', 'сообщение', 'рассылка', 'банкинг', 'roistat', 'pivot', 'anaplan', 'яндекс', 'экономический', 'преподавать', 'конфликт', 'затрата', 'возражение', 'валютный', 'iiko', 'hr', 'эффективность', 'ценность', 'товарно', 'таргетированный', 'склад', 'рекламный', 'реклама', 'расчетно', 'операционный', 'методология', 'материальный', 'качество', 'idef', 'abc', 'хозяйственный', 'финансово', 'производство', 'оценка', 'операция', 'кассовый', 'рынок', 'word']</t>
-  </si>
-  <si>
-    <t>['управление', 'api', 'sql', 'bpmn', 'анализ', 'uml', 'разработка', 'системный', 'проект', 'работа', 'технический', 'формирование', 'задание', 'система', 'javascript', 'принцип', 'знание', 'данные', 'sap', 'базовый', 'база', 'лидерство', 'персонал', 'мышление', 'бизнес', 'microsoft', 'процесс', 'bi', 'apache', 'confluence', 'грамотность', 'аналитический', 'организация', 'kafka', 'информационный', 'server', 'postgresql', 'документация', 'erp', 'rabbitmq', 'сценарий', 'пользовательский', 'ведение', 'swagger', 'dwh', 'postman', 'чтение', 'python', 'обеспечение', 'oracle', 'database', 'применение', 'коммуникативный', 'продукт', 'scala', 'kotlin', 'java', 'hadoop', 'интегративный', 'методология', 'idef', 'etl', 'требование', 'сбор', 'git', 'visio', 'проектный', 'оптимизация', 'тестирование', 'qa', 'учет', 'безопасность', 'язык', 'английский', 'команда', 'решение', 'ux', 'ui', 'программный', 'научно', 'исследовательский', 'абс', 'mongodb', 'цфт', 'архитектурный', 'отчетность', 'нормативный', 'администрирование', 'дизайн', 'диаграмма', 'camunda', 'devops', 'банк', 'клиент', 'программирование', 'er', 'бухгалтерский', 'финансовый', 'esb', 'crm', 'ориентированный', 'dynamics', 'linux', 'archimate', 'airflow', 'unix', 'figma', 'правовой', 'нормативно', 'документ', 'объектно', 'документооборот', 'html', 'css', 'soapui', 'модель', 'аналитика', 'clickhouse', 'битрикс', 'проектирование', 'teradata', 'управленческий', 'net', 'инструментальный', 'бюджетирование', 'excel', 'mysql', 'youtrack', 'togaf', 'проведение', 'многозадачность', 'веб', 'php', 'front', 'end', 'kibana', 'организаторский', 'навык', 'yaml', 'продажа', 'консультирование', 'построение', 'nav', 'сеть', 'ax', 'spark', 'обучаемость', 'адаптивность', 'маркетплейс', 'saas', 'paas', 'iaas', 'налоговый', 'office', 'nosql', 'docker', 'aris', 'риск', 'компьютерный', 'банковский', 'логистика', 'заказчик', 'взаимодействие', 'финанс', 'бит', 'sas', 'оборудование', 'kubernetes', 'сервер', 'scada', 'уровень', 'коммутационный', 'обучение', 'машинный', 'создание', 'использование', 'powerpoint', 'передача', 'умение', 'самоорганизованность', 'визуализация', 'биржа', 'wms', 'принимать', 'презентационный', 'материал', 'мобильный', 'visual', 'redis', 'for', 'basic', 'applications', 'путь', 'карта', 'elasticsearch', 'cjm', 'локальный', 'itsm', 'creatio', 'сапр', 'cad', 'транспортный', 'область', 'внимательность', 'project', 'power', 'сппр', 'принятие', 'метод', 'инструмент', 'elma', 'diasoft', 'low', 'code', 'тренинг', 'статистический', 'поддержка', 'пк', 'обработка', 'коучинг', 'hbase', 'экспедирование', 'настройка', 'автоматизированный', 'safe', 'гис', 'transact', 'ibm', 'акт', 'целеустремленность', 'составление', 'работоспособность', 'сфера', 'автоматизация', 'helpdesk', 'диаграммами', 'dfd', 'операция', 'websphere', 'websocket', 'schema', 'mq', 'json', 'приложение', 'целевой', 'предложение', 'коммерческий', 'аудитория', 'terrasoft', 'enterprise', 'arenadatadb', 'инжиниринг', 'wsdl', 'ruby', 'oauth', 'dbeaver', 'db', 'моделирование', 'сетевой', 'пользователь', 'подготовка', 'инвестиционный', 'zabbix', 'windows', 'hr', 'иса', 'rp', 'nanocad', 'axure', 'avaya', 'станция', 'автоматический', 'powershell', 'nifi', 'cassandra', 'axelot', 'architect', 'публичный', 'презентация', 'выступление', 'web', 'golang', 'ценообразование', 'учреждение', 'протокол', 'мединский', 'маршрутизация', 'галактика', 'smartvista', 'rust', 'activemq', 'преподавание', 'валютный', 'sharepoint', 'grafana', 'blockchain', 'word', 'google', 'docs', 'комплексный', 'vr', 'pdm', 'lims', 'телефонный', 'монтаж', 'математический', 'бухгалтерия', 'sense', 'qlik', 'эксплуатация', 'торговля', 'тмц', 'сохранность', 'конструктор', 'доступ', 'naumen', 'цифровой', 'услуга', 'страхование', 'актив', 'эквайринг', 'компас', 'банкинг', 'superset', 'prometheus', 'business', 'android', 'anaplan', 'проактивность', 'ответственность', 'экономический', 'финансы', 'конструкторский', 'инженерный', 'изыскание', 'внешнеэкономический', 'ios', 'радиорелейный', 'проверка', 'инспекционный', 'selenide', 'libreoffice', 'egar', 'banking', 'allure', 'таргетированный', 'стратегия', 'реклама', 'расчетно', 'парус', 'операционный', 'autocad', 'abc', 'производство', 'маркетинговый', 'кассовый', 'кадровый', 'интервью', 'релейный', 'защита', 'витрина', 'афина', 'автоматика', 'yarn', 'xbrl', 'way', 'planning', 'openvpn', 'haproxy', 'asterisk', 'сайт', 'обслуживание', 'маркетинг', 'инициативность', 'деятельность', 'чпу', 'станок', 'маркировка', 'tarantool', 'kvm', 'iot', 'flink', 'экспертиза', 'технология', 'структура', 'прохождение', 'организационный', 'егаис', 'unity', 'tm', 'suite', 'трафик', 'метрика', 'коммутатор', 'биллинг', 'арбитраж', 'roistat', 'red', 'hat', 'cognos', 'яндекс', 'юридический', 'учебный', 'лицо', 'видео', 'studio', 'эффективность', 'склад', 'рекламный', 'задолженность', 'дебиторский', 'tableau', 'оценка', 'оргтехника', 'новый', 'кредитование', 'аудит', 'analytics', 'access', 'рынок', 'производственный', 'основа', 'написание', 'мотивировать', 'креативный', 'контроль', 'клиентоориентированность', 'выполнение', 'адаптировать', 'amocrm']</t>
-  </si>
-  <si>
-    <t>['ведение', 'финансовый', 'отчетность', 'анализ', 'управление', 'бюджетирование', 'учет', 'грамотность', 'управленческий', 'финансы', 'microsoft', 'бухгалтерский', 'коммуникативный', 'знание', 'продажа', 'работа', 'excel', 'информационный', 'мышление', 'аналитический', 'документооборот', 'хозяйственный', 'финансово', 'деятельность', 'экономический', 'клиент', 'язык', 'базовый', 'английский', 'инвестиционный', 'процесс', 'бизнес', 'налоговый', 'проведение', 'риск', 'финансирование', 'аудит', 'сфера', 'организация', 'команда', 'локальный', 'акт', 'операция', 'многозадачность', 'затрата', 'разработка', 'нормативный', 'привлечение', 'поиск', 'пк', 'данные', 'powerpoint', 'задолженность', 'дебиторский', 'кредитование', 'проект', 'bi', 'проектный', 'персонал', 'новый', 'договор', 'лидерство', 'инструментальный', 'ценообразование', 'составление', 'банк', 'google', 'office', 'навык', 'консультирование', 'валютный', 'организаторский', 'обучаемость', 'адаптивность', 'outlook', 'клиентоориентированность', 'поставщик', 'erp', 'моделирование', 'публичный', 'презентация', 'выступление', 'база', 'проактивность', 'ответственность', 'оптимизация', 'целеустремленность', 'работоспособность', 'sap', 'банковский', 'обслуживание', 'система', 'docs', 'создание', 'производственный', 'презентационный', 'материал', 'биллинг', 'sheets', 'самоорганизованность', 'диаграмма', 'uml', 'технический', 'лизинг', 'контроль', 'выполнение', 'планирование', 'внешнеэкономический', 'кассовый', 'внимательность', 'обеспечение', 'правовой', 'power', 'sql', 'стандарт', 'международный', 'страхование', 'продукт', 'системный', 'интегративный', 'юридический', 'лицо', 'нормативно', 'документ', 'гарантия', 'swot', 'pest', 'логистика', 'труд', 'оплата', 'статистический', 'обработка', 'услуга', 'оценка', 'маркетплейс', 'эффективность', 'рекламный', 'инструмент', 'умение', 'программный', 'тренинг', 'область', 'коучинг', 'взаимодействие', 'самостоятельность', 'стрессоустойчивость', 'операционный', 'инвентаризация', 'расчетно', 'научно', 'исследовательский', 'написание', 'инициативность', 'битрикс', 'позитивный', 'подбор', 'access', 'заказчик', 'решение', 'принимать', 'word', 'сценарий', 'предприятие', 'пользовательский', 'возражение', 'креативный', 'безопасность', 'server', 'логический', 'финанс', 'потребитель', 'бит', 'query', 'crm', 'oracle', 'database', 'орган', 'контролировать', 'стать', 'quickbooks', 'текст', 'редактирование', 'инвестор', 'государственный', 'недвижимость', 'поддержка', 'использование', 'visual', 'for', 'basic', 'applications', 'товар', 'заказ', 'смета', 'гранд', 'среда', 'конкурентный', 'автомобиль', 'abc', 'прием', 'доставка', 'рынок', 'мотивировать', 'адаптировать', 'корпоративный', 'оргтехника', 'маркетинговый', 'социальный', 'мобильный', 'счет', 'ностро', 'лоро', 'книга', 'русский', 'автокредитование', 'документация', 'project', 'стратегия', 'сеть', 'продвижение', 'ипотечный', 'жилой', 'pivot', 'экспедирование', 'складской', 'кадровый', 'автоматизированный', 'рыночный', 'риска', 'грузовой', 'nav', 'транспортный', 'небольшой', 'грузовик', 'аренда', 'keeper', 'закупка', 'экспертиза', 'стоимость', 'прохождение', 'контурэкстерна', 'имущество', 'dynamics', 'api', 'легковой', 'amocrm', 'исследование', 'ассортимент', 'ios', 'хирургия', 'польский', 'малоэтажный', 'гостиница', 'взрослый', 'ценность', 'товарно', 'телефонный', 'приложение', 'материальный', 'tableau', 'спарк', 'помещение', 'интерфакс', 'storehouse', 'quik', 'mindbox', 'формирование', 'задание', 'net', 'хозяйство', 'строительство', 'немецкий', 'qwery', 'уровень', 'тмц', 'сохранность', 'процентный', 'кредитный', 'коммутационный', 'здание', 'diasoft', 'эквайринг', 'сообщение', 'сметный', 'рассылка', 'предложение', 'передача', 'критический', 'коммерческий', 'испанский', 'внутренний', 'внедрение', 'бренд', 'wordpress', 'kpi', 'сбыт', 'ремонт', 'подготовка', 'конфликт', 'контент', 'канал', 'дистрибуция', 'автоматизация', 'абс', 'таргетированный', 'реклама', 'продукция', 'принцип', 'парус', 'оборудование', 'математический', 'бухгалтерия', 'биржа', 'sense', 'qlik', 'python', 'цифровой', 'поисковый', 'настройка', 'компьютерный', 'интервью', 'актив', 'visio', 'seo', 'postgresql', 'confluence', 'analytics', 'чтение', 'сайт', 'основа', 'маркетинг', 'html', 'css']</t>
+    <t>['анализ', 'microsoft', 'управление', 'данные', 'финансовый', 'sql', 'грамотность', 'проведение', 'bi', 'мышление', 'знание', 'ведение', 'разработка', 'работа', 'аналитический', 'маркетинговый', 'python', 'исследование', 'отчетность', 'инвестиционный']</t>
+  </si>
+  <si>
+    <t>['управление', 'анализ', 'microsoft', 'данные', 'грамотность', 'sql', 'работа', 'разработка', 'мышление', 'аналитический', 'bi', 'информационный', 'технический', 'бизнес', 'процесс', 'формирование', 'задание', 'excel', 'проект', 'bpmn']</t>
+  </si>
+  <si>
+    <t>['управление', 'бизнес', 'разработка', 'процесс', 'bi', 'организация', 'microsoft', 'bpmn', 'анализ', 'работа', 'грамотность', 'проект', 'мышление', 'аналитический', 'система', 'технический', 'оптимизация', 'sql', 'формирование', 'задание']</t>
+  </si>
+  <si>
+    <t>['проведение', 'тренинг', 'коучинг', 'продажа', 'обучаемость', 'адаптивность', 'грамотность', 'персонал', 'управление', 'коммуникативный', 'публичный', 'презентация', 'выступление', 'учебный', 'лидерство', 'организаторский', 'навык', 'потребитель', 'процесс', 'организация']</t>
+  </si>
+  <si>
+    <t>['управление', 'продукт', 'грамотность', 'анализ', 'проект', 'коммуникативный', 'работа', 'проведение', 'продажа', 'мышление', 'знание', 'лидерство', 'персонал', 'разработка', 'аналитический', 'рынок', 'исследование', 'маркетинговый', 'язык', 'английский']</t>
+  </si>
+  <si>
+    <t>['ведение', 'грамотность', 'документооборот', 'базовый', 'знание', 'работа', 'пк', 'коммуникативный', 'информационный', 'microsoft', 'учет', 'команда', 'управление', 'данные', 'база', 'инструментальный', 'складской', 'оргтехника', 'оформление', 'прием']</t>
+  </si>
+  <si>
+    <t>['javascript', 'разработка', 'scala', 'kotlin', 'java', 'git', 'php', 'sql', 'html', 'css', 'api', 'postgresql', 'python', 'управление', 'мобильный', 'программирование', 'объектно', 'docker', 'знание', 'ориентированный']</t>
+  </si>
+  <si>
+    <t>['управление', 'api', 'sql', 'bpmn', 'анализ', 'uml', 'разработка', 'системный', 'проект', 'работа', 'технический', 'формирование', 'задание', 'система', 'javascript', 'принцип', 'знание', 'данные', 'sap', 'базовый']</t>
+  </si>
+  <si>
+    <t>['ведение', 'финансовый', 'отчетность', 'анализ', 'управление', 'бюджетирование', 'учет', 'грамотность', 'управленческий', 'финансы', 'microsoft', 'бухгалтерский', 'коммуникативный', 'знание', 'продажа', 'работа', 'excel', 'информационный', 'мышление', 'аналитический']</t>
   </si>
 </sst>
 </file>
